--- a/ejemplos/Psylvestris_CyL-datos_ejemplo.xlsx
+++ b/ejemplos/Psylvestris_CyL-datos_ejemplo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parcelas" sheetId="1" state="visible" r:id="rId2"/>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Del_Rio_et_al_2006</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_arbol</t>
+    <t xml:space="preserve">ID_Arbol</t>
   </si>
   <si>
     <t xml:space="preserve">especie</t>
@@ -185,6 +185,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -195,7 +204,7 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -424,8 +433,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -440,8 +449,8 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M30" activeCellId="0" sqref="M30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1970,8 +1979,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ejemplos/Psylvestris_CyL-datos_ejemplo.xlsx
+++ b/ejemplos/Psylvestris_CyL-datos_ejemplo.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\iuFOR_trabajo\Proyectos\IFN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iuFOR_trabajo\Repositorios\LINUX\simanfor\inventarios\ejemplos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B4443D-1A27-4C67-8A14-10A29D2E019E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472DD545-CB6A-446A-B862-F14E9B0EBB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadatos" sheetId="1" r:id="rId1"/>
-    <sheet name="Parcelas" sheetId="2" r:id="rId2"/>
-    <sheet name="PiesMayores" sheetId="3" r:id="rId3"/>
+    <sheet name="Parcelas" sheetId="2" r:id="rId1"/>
+    <sheet name="PiesMayores" sheetId="3" r:id="rId2"/>
+    <sheet name="Metadatos" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">PiesMayores!$A$1:$Q$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">PiesMayores!$A$1:$Q$49</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -478,12 +478,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,6 +559,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,6 +967,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMC6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="22" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="20"/>
+    <col min="7" max="7" width="8.85546875" style="22"/>
+    <col min="8" max="8" width="8.85546875" style="24"/>
+    <col min="9" max="9" width="17" style="24" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="25"/>
+    <col min="12" max="16" width="20.42578125" style="26" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="20" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="20" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="20"/>
+    <col min="22" max="22" width="10.140625" style="20" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="20" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="20" customWidth="1"/>
+    <col min="25" max="35" width="8.85546875" style="20"/>
+    <col min="36" max="36" width="15.5703125" style="20" customWidth="1"/>
+    <col min="37" max="37" width="10.28515625" style="20" customWidth="1"/>
+    <col min="38" max="40" width="8.85546875" style="20"/>
+    <col min="41" max="41" width="15.5703125" style="20" customWidth="1"/>
+    <col min="42" max="985" width="8.85546875" style="20"/>
+    <col min="986" max="987" width="11.5703125" style="20" customWidth="1"/>
+    <col min="988" max="1017" width="9.140625" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1017" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AMC1" s="20"/>
+    </row>
+    <row r="2" spans="1:1017" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="21">
+        <v>12</v>
+      </c>
+      <c r="C2" s="22">
+        <v>21</v>
+      </c>
+      <c r="F2" s="20">
+        <v>2006</v>
+      </c>
+      <c r="G2" s="22">
+        <v>20</v>
+      </c>
+      <c r="H2" s="24">
+        <v>1637</v>
+      </c>
+      <c r="I2" s="24">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J2" s="24">
+        <v>3.9</v>
+      </c>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:1017" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="21">
+        <v>15</v>
+      </c>
+      <c r="C3" s="22">
+        <v>21</v>
+      </c>
+      <c r="F3" s="20">
+        <v>2006</v>
+      </c>
+      <c r="G3" s="22">
+        <v>20</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1338</v>
+      </c>
+      <c r="I3" s="24">
+        <v>18</v>
+      </c>
+      <c r="J3" s="24">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1017" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="21">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22">
+        <v>21</v>
+      </c>
+      <c r="F4" s="20">
+        <v>2006</v>
+      </c>
+      <c r="G4" s="22">
+        <v>20</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1120</v>
+      </c>
+      <c r="I4" s="24">
+        <v>19.7</v>
+      </c>
+      <c r="J4" s="24">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1017" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="21">
+        <v>21</v>
+      </c>
+      <c r="C5" s="22">
+        <v>21</v>
+      </c>
+      <c r="F5" s="20">
+        <v>2006</v>
+      </c>
+      <c r="G5" s="22">
+        <v>20</v>
+      </c>
+      <c r="H5" s="24">
+        <v>951</v>
+      </c>
+      <c r="I5" s="24">
+        <v>21.7</v>
+      </c>
+      <c r="J5" s="24">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1017" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="21">
+        <v>24</v>
+      </c>
+      <c r="C6" s="22">
+        <v>21</v>
+      </c>
+      <c r="F6" s="20">
+        <v>2006</v>
+      </c>
+      <c r="G6" s="22">
+        <v>20</v>
+      </c>
+      <c r="H6" s="24">
+        <v>815</v>
+      </c>
+      <c r="I6" s="24">
+        <v>24</v>
+      </c>
+      <c r="J6" s="24">
+        <v>10.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="0rWWjJOq0FsnwxVZFxBuVQBkfz6BWPoTvFeGi62Ic8eGqoWWs+LhzpyneWSq6SO0BZXpiRZ6iz9xqgn+irrRWg==" saltValue="T7xqGnRFzwW4r2sXD9cfYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
+  </protectedRanges>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AMA46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="21"/>
+    <col min="5" max="5" width="16.28515625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="20"/>
+    <col min="8" max="8" width="8.85546875" style="27"/>
+    <col min="9" max="9" width="11.5703125" style="24" customWidth="1"/>
+    <col min="10" max="15" width="8.85546875" style="20"/>
+    <col min="16" max="16" width="8.85546875" style="28"/>
+    <col min="17" max="901" width="8.85546875" style="20"/>
+    <col min="902" max="919" width="11.5703125" style="20" customWidth="1"/>
+    <col min="920" max="975" width="9.140625" style="20" customWidth="1"/>
+    <col min="976" max="1015" width="11.5703125" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1015" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="ALS1" s="20"/>
+      <c r="ALT1" s="20"/>
+      <c r="ALU1" s="20"/>
+      <c r="ALV1" s="20"/>
+      <c r="ALW1" s="20"/>
+      <c r="ALX1" s="20"/>
+      <c r="ALY1" s="20"/>
+      <c r="ALZ1" s="20"/>
+      <c r="AMA1" s="20"/>
+    </row>
+    <row r="2" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="21">
+        <v>12</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>21</v>
+      </c>
+      <c r="E2" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H2" s="27">
+        <v>11.3</v>
+      </c>
+      <c r="I2" s="24">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="21">
+        <v>12</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21">
+        <v>21</v>
+      </c>
+      <c r="E3" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H3" s="27">
+        <v>11.3</v>
+      </c>
+      <c r="I3" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="21">
+        <v>12</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21">
+        <v>21</v>
+      </c>
+      <c r="E4" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H4" s="27">
+        <v>11.3</v>
+      </c>
+      <c r="I4" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="21">
+        <v>12</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21">
+        <v>21</v>
+      </c>
+      <c r="E5" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H5" s="27">
+        <v>13.6</v>
+      </c>
+      <c r="I5" s="24">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="21">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5</v>
+      </c>
+      <c r="D6" s="21">
+        <v>21</v>
+      </c>
+      <c r="E6" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H6" s="27">
+        <v>13.6</v>
+      </c>
+      <c r="I6" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="21">
+        <v>12</v>
+      </c>
+      <c r="C7" s="21">
+        <v>6</v>
+      </c>
+      <c r="D7" s="21">
+        <v>21</v>
+      </c>
+      <c r="E7" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H7" s="27">
+        <v>13.6</v>
+      </c>
+      <c r="I7" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="21">
+        <v>12</v>
+      </c>
+      <c r="C8" s="21">
+        <v>7</v>
+      </c>
+      <c r="D8" s="21">
+        <v>21</v>
+      </c>
+      <c r="E8" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H8" s="27">
+        <v>9</v>
+      </c>
+      <c r="I8" s="24">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="21">
+        <v>12</v>
+      </c>
+      <c r="C9" s="21">
+        <v>8</v>
+      </c>
+      <c r="D9" s="21">
+        <v>21</v>
+      </c>
+      <c r="E9" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H9" s="27">
+        <v>9</v>
+      </c>
+      <c r="I9" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="21">
+        <v>12</v>
+      </c>
+      <c r="C10" s="21">
+        <v>9</v>
+      </c>
+      <c r="D10" s="21">
+        <v>21</v>
+      </c>
+      <c r="E10" s="27">
+        <v>181.9</v>
+      </c>
+      <c r="H10" s="27">
+        <v>9</v>
+      </c>
+      <c r="I10" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="21">
+        <v>15</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>21</v>
+      </c>
+      <c r="E11" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H11" s="27">
+        <v>13.1</v>
+      </c>
+      <c r="I11" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="21">
+        <v>15</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21">
+        <v>21</v>
+      </c>
+      <c r="E12" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H12" s="27">
+        <v>13.1</v>
+      </c>
+      <c r="I12" s="24">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="21">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21">
+        <v>21</v>
+      </c>
+      <c r="E13" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H13" s="27">
+        <v>13.1</v>
+      </c>
+      <c r="I13" s="24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="21">
+        <v>15</v>
+      </c>
+      <c r="C14" s="21">
+        <v>4</v>
+      </c>
+      <c r="D14" s="21">
+        <v>21</v>
+      </c>
+      <c r="E14" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H14" s="27">
+        <v>15.7</v>
+      </c>
+      <c r="I14" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="21">
+        <v>15</v>
+      </c>
+      <c r="C15" s="21">
+        <v>5</v>
+      </c>
+      <c r="D15" s="21">
+        <v>21</v>
+      </c>
+      <c r="E15" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H15" s="27">
+        <v>15.7</v>
+      </c>
+      <c r="I15" s="24">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1015" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="21">
+        <v>15</v>
+      </c>
+      <c r="C16" s="21">
+        <v>6</v>
+      </c>
+      <c r="D16" s="21">
+        <v>21</v>
+      </c>
+      <c r="E16" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H16" s="27">
+        <v>15.7</v>
+      </c>
+      <c r="I16" s="24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="21">
+        <v>15</v>
+      </c>
+      <c r="C17" s="21">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21">
+        <v>21</v>
+      </c>
+      <c r="E17" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H17" s="27">
+        <v>10.5</v>
+      </c>
+      <c r="I17" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="21">
+        <v>15</v>
+      </c>
+      <c r="C18" s="21">
+        <v>8</v>
+      </c>
+      <c r="D18" s="21">
+        <v>21</v>
+      </c>
+      <c r="E18" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H18" s="27">
+        <v>10.5</v>
+      </c>
+      <c r="I18" s="24">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="21">
+        <v>15</v>
+      </c>
+      <c r="C19" s="21">
+        <v>9</v>
+      </c>
+      <c r="D19" s="21">
+        <v>21</v>
+      </c>
+      <c r="E19" s="27">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H19" s="27">
+        <v>10.5</v>
+      </c>
+      <c r="I19" s="24">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="21">
+        <v>18</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <v>21</v>
+      </c>
+      <c r="E20" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H20" s="27">
+        <v>15</v>
+      </c>
+      <c r="I20" s="24">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="21">
+        <v>21</v>
+      </c>
+      <c r="E21" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H21" s="27">
+        <v>15</v>
+      </c>
+      <c r="I21" s="24">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="21">
+        <v>18</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
+      <c r="D22" s="21">
+        <v>21</v>
+      </c>
+      <c r="E22" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H22" s="27">
+        <v>15</v>
+      </c>
+      <c r="I22" s="24">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="21">
+        <v>18</v>
+      </c>
+      <c r="C23" s="21">
+        <v>4</v>
+      </c>
+      <c r="D23" s="21">
+        <v>21</v>
+      </c>
+      <c r="E23" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H23" s="27">
+        <v>18</v>
+      </c>
+      <c r="I23" s="24">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="21">
+        <v>18</v>
+      </c>
+      <c r="C24" s="21">
+        <v>5</v>
+      </c>
+      <c r="D24" s="21">
+        <v>21</v>
+      </c>
+      <c r="E24" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H24" s="27">
+        <v>18</v>
+      </c>
+      <c r="I24" s="24">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="21">
+        <v>18</v>
+      </c>
+      <c r="C25" s="21">
+        <v>6</v>
+      </c>
+      <c r="D25" s="21">
+        <v>21</v>
+      </c>
+      <c r="E25" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H25" s="27">
+        <v>18</v>
+      </c>
+      <c r="I25" s="24">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="21">
+        <v>18</v>
+      </c>
+      <c r="C26" s="21">
+        <v>7</v>
+      </c>
+      <c r="D26" s="21">
+        <v>21</v>
+      </c>
+      <c r="E26" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H26" s="27">
+        <v>12</v>
+      </c>
+      <c r="I26" s="24">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="21">
+        <v>18</v>
+      </c>
+      <c r="C27" s="21">
+        <v>8</v>
+      </c>
+      <c r="D27" s="21">
+        <v>21</v>
+      </c>
+      <c r="E27" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H27" s="27">
+        <v>12</v>
+      </c>
+      <c r="I27" s="24">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="21">
+        <v>18</v>
+      </c>
+      <c r="C28" s="21">
+        <v>9</v>
+      </c>
+      <c r="D28" s="21">
+        <v>21</v>
+      </c>
+      <c r="E28" s="27">
+        <v>124.4</v>
+      </c>
+      <c r="H28" s="27">
+        <v>12</v>
+      </c>
+      <c r="I28" s="24">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="21">
+        <v>21</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21">
+        <v>21</v>
+      </c>
+      <c r="E29" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H29" s="27">
+        <v>17</v>
+      </c>
+      <c r="I29" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="21">
+        <v>21</v>
+      </c>
+      <c r="C30" s="21">
+        <v>2</v>
+      </c>
+      <c r="D30" s="21">
+        <v>21</v>
+      </c>
+      <c r="E30" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H30" s="27">
+        <v>17</v>
+      </c>
+      <c r="I30" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="21">
+        <v>21</v>
+      </c>
+      <c r="C31" s="21">
+        <v>3</v>
+      </c>
+      <c r="D31" s="21">
+        <v>21</v>
+      </c>
+      <c r="E31" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H31" s="27">
+        <v>17</v>
+      </c>
+      <c r="I31" s="24">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="21">
+        <v>21</v>
+      </c>
+      <c r="C32" s="21">
+        <v>4</v>
+      </c>
+      <c r="D32" s="21">
+        <v>21</v>
+      </c>
+      <c r="E32" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H32" s="27">
+        <v>20.5</v>
+      </c>
+      <c r="I32" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="21">
+        <v>21</v>
+      </c>
+      <c r="C33" s="21">
+        <v>5</v>
+      </c>
+      <c r="D33" s="21">
+        <v>21</v>
+      </c>
+      <c r="E33" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H33" s="27">
+        <v>20.5</v>
+      </c>
+      <c r="I33" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="21">
+        <v>21</v>
+      </c>
+      <c r="C34" s="21">
+        <v>6</v>
+      </c>
+      <c r="D34" s="21">
+        <v>21</v>
+      </c>
+      <c r="E34" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H34" s="27">
+        <v>20.5</v>
+      </c>
+      <c r="I34" s="24">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="21">
+        <v>21</v>
+      </c>
+      <c r="C35" s="21">
+        <v>7</v>
+      </c>
+      <c r="D35" s="21">
+        <v>21</v>
+      </c>
+      <c r="E35" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H35" s="27">
+        <v>13.6</v>
+      </c>
+      <c r="I35" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="21">
+        <v>21</v>
+      </c>
+      <c r="C36" s="21">
+        <v>8</v>
+      </c>
+      <c r="D36" s="21">
+        <v>21</v>
+      </c>
+      <c r="E36" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H36" s="27">
+        <v>13.6</v>
+      </c>
+      <c r="I36" s="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="21">
+        <v>21</v>
+      </c>
+      <c r="C37" s="21">
+        <v>9</v>
+      </c>
+      <c r="D37" s="21">
+        <v>21</v>
+      </c>
+      <c r="E37" s="27">
+        <v>105.7</v>
+      </c>
+      <c r="H37" s="27">
+        <v>13.6</v>
+      </c>
+      <c r="I37" s="24">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="21">
+        <v>24</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21">
+        <v>21</v>
+      </c>
+      <c r="E38" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H38" s="27">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I38" s="24">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="21">
+        <v>24</v>
+      </c>
+      <c r="C39" s="21">
+        <v>2</v>
+      </c>
+      <c r="D39" s="21">
+        <v>21</v>
+      </c>
+      <c r="E39" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H39" s="27">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I39" s="24">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="21">
+        <v>24</v>
+      </c>
+      <c r="C40" s="21">
+        <v>3</v>
+      </c>
+      <c r="D40" s="21">
+        <v>21</v>
+      </c>
+      <c r="E40" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H40" s="27">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I40" s="24">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="21">
+        <v>24</v>
+      </c>
+      <c r="C41" s="21">
+        <v>4</v>
+      </c>
+      <c r="D41" s="21">
+        <v>21</v>
+      </c>
+      <c r="E41" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H41" s="27">
+        <v>23.2</v>
+      </c>
+      <c r="I41" s="24">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="21">
+        <v>24</v>
+      </c>
+      <c r="C42" s="21">
+        <v>5</v>
+      </c>
+      <c r="D42" s="21">
+        <v>21</v>
+      </c>
+      <c r="E42" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H42" s="27">
+        <v>23.2</v>
+      </c>
+      <c r="I42" s="24">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="21">
+        <v>24</v>
+      </c>
+      <c r="C43" s="21">
+        <v>6</v>
+      </c>
+      <c r="D43" s="21">
+        <v>21</v>
+      </c>
+      <c r="E43" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H43" s="27">
+        <v>23.2</v>
+      </c>
+      <c r="I43" s="24">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="21">
+        <v>24</v>
+      </c>
+      <c r="C44" s="21">
+        <v>7</v>
+      </c>
+      <c r="D44" s="21">
+        <v>21</v>
+      </c>
+      <c r="E44" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H44" s="27">
+        <v>15.5</v>
+      </c>
+      <c r="I44" s="24">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="21">
+        <v>24</v>
+      </c>
+      <c r="C45" s="21">
+        <v>8</v>
+      </c>
+      <c r="D45" s="21">
+        <v>21</v>
+      </c>
+      <c r="E45" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H45" s="27">
+        <v>15.5</v>
+      </c>
+      <c r="I45" s="24">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="21">
+        <v>24</v>
+      </c>
+      <c r="C46" s="21">
+        <v>9</v>
+      </c>
+      <c r="D46" s="21">
+        <v>21</v>
+      </c>
+      <c r="E46" s="27">
+        <v>90.6</v>
+      </c>
+      <c r="H46" s="27">
+        <v>15.5</v>
+      </c>
+      <c r="I46" s="24">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="WxC82J9ZOq/HWSfjc/rjXZfhtoqB+Hl5zUO3/thDX9qv4q6ksryXG6j2KOlsBOwkIbcHnMV64tgv3sXlUnOsnA==" saltValue="mXw2TrW2sNorhpRmmoIglw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="R2:AMJ2 R4:AMJ1048576 A3:P3 R3:AMJ3 A4:Q1048576 A2:Q2" name="Range1"/>
+  </protectedRanges>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048"/>
   <sheetViews>
@@ -987,31 +2405,31 @@
     <col min="10" max="10" width="212" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1022,13 +2440,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
@@ -1039,13 +2457,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
@@ -1056,13 +2474,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
@@ -1073,13 +2491,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
@@ -1090,7 +2508,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
@@ -1101,7 +2519,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
@@ -1112,11 +2530,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="29"/>
+      <c r="D9" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
@@ -1127,9 +2545,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="D10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E10" t="s">
@@ -1140,9 +2558,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="D11" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E11" t="s">
@@ -1153,11 +2571,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="16" t="s">
+      <c r="B12" s="30"/>
+      <c r="D12" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
@@ -1168,9 +2586,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="17" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="D13" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E13" t="s">
@@ -1181,7 +2599,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E14" t="s">
@@ -1192,7 +2610,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E15" t="s">
@@ -1203,7 +2621,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E16" t="s">
@@ -1214,7 +2632,7 @@
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E17" t="s">
@@ -1225,7 +2643,7 @@
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>51</v>
       </c>
       <c r="E18" t="s">
@@ -1236,7 +2654,7 @@
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
@@ -1247,7 +2665,7 @@
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E20" t="s">
@@ -1258,7 +2676,7 @@
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E21" t="s">
@@ -1269,7 +2687,7 @@
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
@@ -1280,7 +2698,7 @@
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E23" t="s">
@@ -1291,7 +2709,7 @@
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E24" t="s">
@@ -1302,7 +2720,7 @@
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>65</v>
       </c>
       <c r="E25" t="s">
@@ -1313,7 +2731,7 @@
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E26" t="s">
@@ -1324,7 +2742,7 @@
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E27" t="s">
@@ -1335,7 +2753,7 @@
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="12" t="s">
         <v>71</v>
       </c>
       <c r="E28" t="s">
@@ -1346,23 +2764,23 @@
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
@@ -1373,7 +2791,7 @@
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
@@ -1384,7 +2802,7 @@
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E33" t="s">
@@ -1395,7 +2813,7 @@
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E34" t="s">
@@ -1406,7 +2824,7 @@
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>78</v>
       </c>
       <c r="E35" t="s">
@@ -1417,7 +2835,7 @@
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E36" t="s">
@@ -1428,7 +2846,7 @@
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E37" t="s">
@@ -1439,7 +2857,7 @@
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>84</v>
       </c>
       <c r="E38" t="s">
@@ -1450,7 +2868,7 @@
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E39" t="s">
@@ -1461,7 +2879,7 @@
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E40" t="s">
@@ -1472,7 +2890,7 @@
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>90</v>
       </c>
       <c r="E41" t="s">
@@ -1483,7 +2901,7 @@
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E42" t="s">
@@ -1494,7 +2912,7 @@
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="12" t="s">
         <v>94</v>
       </c>
       <c r="E43" t="s">
@@ -1505,7 +2923,7 @@
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E44" t="s">
@@ -1516,7 +2934,7 @@
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="12" t="s">
         <v>98</v>
       </c>
       <c r="E45" t="s">
@@ -1527,7 +2945,7 @@
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E46" t="s">
@@ -1538,7 +2956,7 @@
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="12" t="s">
         <v>102</v>
       </c>
       <c r="E47" t="s">
@@ -1549,7 +2967,7 @@
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
         <v>104</v>
       </c>
       <c r="E48" t="s">
@@ -1560,2983 +2978,2983 @@
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D56" s="14"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D57" s="14"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D58" s="14"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D59" s="14"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D60" s="14"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D61" s="14"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D62" s="14"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D63" s="14"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D64" s="14"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D65" s="14"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66" s="14"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67" s="14"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D68" s="14"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" s="14"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D70" s="14"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D71" s="14"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D72" s="14"/>
+      <c r="D72" s="12"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D73" s="14"/>
+      <c r="D73" s="12"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D74" s="14"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D75" s="14"/>
+      <c r="D75" s="12"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D76" s="14"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77" s="14"/>
+      <c r="D77" s="12"/>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78" s="14"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" s="14"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D80" s="14"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" s="14"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82" s="14"/>
+      <c r="D82" s="12"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D83" s="14"/>
+      <c r="D83" s="12"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D84" s="14"/>
+      <c r="D84" s="12"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D85" s="14"/>
+      <c r="D85" s="12"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D86" s="14"/>
+      <c r="D86" s="12"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87" s="14"/>
+      <c r="D87" s="12"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D88" s="14"/>
+      <c r="D88" s="12"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D89" s="14"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D90" s="14"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D91" s="14"/>
+      <c r="D91" s="12"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D92" s="14"/>
+      <c r="D92" s="12"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D93" s="14"/>
+      <c r="D93" s="12"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D94" s="14"/>
+      <c r="D94" s="12"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D95" s="14"/>
+      <c r="D95" s="12"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D96" s="14"/>
+      <c r="D96" s="12"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D97" s="14"/>
+      <c r="D97" s="12"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D98" s="14"/>
+      <c r="D98" s="12"/>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D99" s="14"/>
+      <c r="D99" s="12"/>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D100" s="14"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D101" s="14"/>
+      <c r="D101" s="12"/>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D102" s="14"/>
+      <c r="D102" s="12"/>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D103" s="14"/>
+      <c r="D103" s="12"/>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D104" s="14"/>
+      <c r="D104" s="12"/>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D105" s="14"/>
+      <c r="D105" s="12"/>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D106" s="14"/>
+      <c r="D106" s="12"/>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D107" s="14"/>
+      <c r="D107" s="12"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D108" s="14"/>
+      <c r="D108" s="12"/>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D109" s="14"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D110" s="14"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D111" s="14"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D112" s="14"/>
+      <c r="D112" s="12"/>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D113" s="14"/>
+      <c r="D113" s="12"/>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D114" s="14"/>
+      <c r="D114" s="12"/>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D115" s="14"/>
+      <c r="D115" s="12"/>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D116" s="14"/>
+      <c r="D116" s="12"/>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D117" s="14"/>
+      <c r="D117" s="12"/>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D118" s="14"/>
+      <c r="D118" s="12"/>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D119" s="14"/>
+      <c r="D119" s="12"/>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D120" s="14"/>
+      <c r="D120" s="12"/>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D121" s="14"/>
+      <c r="D121" s="12"/>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D122" s="14"/>
+      <c r="D122" s="12"/>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D123" s="14"/>
+      <c r="D123" s="12"/>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D124" s="14"/>
+      <c r="D124" s="12"/>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D125" s="14"/>
+      <c r="D125" s="12"/>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D126" s="14"/>
+      <c r="D126" s="12"/>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D127" s="14"/>
+      <c r="D127" s="12"/>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D128" s="14"/>
+      <c r="D128" s="12"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D129" s="14"/>
+      <c r="D129" s="12"/>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D130" s="14"/>
+      <c r="D130" s="12"/>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D131" s="14"/>
+      <c r="D131" s="12"/>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D132" s="14"/>
+      <c r="D132" s="12"/>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D133" s="14"/>
+      <c r="D133" s="12"/>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D134" s="14"/>
+      <c r="D134" s="12"/>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D135" s="14"/>
+      <c r="D135" s="12"/>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D136" s="14"/>
+      <c r="D136" s="12"/>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D137" s="14"/>
+      <c r="D137" s="12"/>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D138" s="14"/>
+      <c r="D138" s="12"/>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D139" s="14"/>
+      <c r="D139" s="12"/>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D140" s="14"/>
+      <c r="D140" s="12"/>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D141" s="14"/>
+      <c r="D141" s="12"/>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D142" s="14"/>
+      <c r="D142" s="12"/>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D143" s="14"/>
+      <c r="D143" s="12"/>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D144" s="14"/>
+      <c r="D144" s="12"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D145" s="14"/>
+      <c r="D145" s="12"/>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D146" s="14"/>
+      <c r="D146" s="12"/>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D147" s="14"/>
+      <c r="D147" s="12"/>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D148" s="14"/>
+      <c r="D148" s="12"/>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D149" s="14"/>
+      <c r="D149" s="12"/>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D150" s="14"/>
+      <c r="D150" s="12"/>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D151" s="14"/>
+      <c r="D151" s="12"/>
     </row>
     <row r="152" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D152" s="14"/>
+      <c r="D152" s="12"/>
     </row>
     <row r="153" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D153" s="14"/>
+      <c r="D153" s="12"/>
     </row>
     <row r="154" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D154" s="14"/>
+      <c r="D154" s="12"/>
     </row>
     <row r="155" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D155" s="14"/>
+      <c r="D155" s="12"/>
     </row>
     <row r="156" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D156" s="14"/>
+      <c r="D156" s="12"/>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D157" s="14"/>
+      <c r="D157" s="12"/>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D158" s="14"/>
+      <c r="D158" s="12"/>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D159" s="14"/>
+      <c r="D159" s="12"/>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D160" s="14"/>
+      <c r="D160" s="12"/>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D161" s="14"/>
+      <c r="D161" s="12"/>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D162" s="14"/>
+      <c r="D162" s="12"/>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D163" s="14"/>
+      <c r="D163" s="12"/>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D164" s="14"/>
+      <c r="D164" s="12"/>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D165" s="14"/>
+      <c r="D165" s="12"/>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D166" s="14"/>
+      <c r="D166" s="12"/>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D167" s="14"/>
+      <c r="D167" s="12"/>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D168" s="14"/>
+      <c r="D168" s="12"/>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D169" s="14"/>
+      <c r="D169" s="12"/>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D170" s="14"/>
+      <c r="D170" s="12"/>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D171" s="14"/>
+      <c r="D171" s="12"/>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D172" s="14"/>
+      <c r="D172" s="12"/>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D173" s="14"/>
+      <c r="D173" s="12"/>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D174" s="14"/>
+      <c r="D174" s="12"/>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D175" s="14"/>
+      <c r="D175" s="12"/>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D176" s="14"/>
+      <c r="D176" s="12"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D177" s="14"/>
+      <c r="D177" s="12"/>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D178" s="14"/>
+      <c r="D178" s="12"/>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D179" s="14"/>
+      <c r="D179" s="12"/>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D180" s="14"/>
+      <c r="D180" s="12"/>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D181" s="14"/>
+      <c r="D181" s="12"/>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D182" s="14"/>
+      <c r="D182" s="12"/>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D183" s="14"/>
+      <c r="D183" s="12"/>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D184" s="14"/>
+      <c r="D184" s="12"/>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D185" s="14"/>
+      <c r="D185" s="12"/>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D186" s="14"/>
+      <c r="D186" s="12"/>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D187" s="14"/>
+      <c r="D187" s="12"/>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D188" s="14"/>
+      <c r="D188" s="12"/>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D189" s="14"/>
+      <c r="D189" s="12"/>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D190" s="14"/>
+      <c r="D190" s="12"/>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D191" s="14"/>
+      <c r="D191" s="12"/>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D192" s="14"/>
+      <c r="D192" s="12"/>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D193" s="14"/>
+      <c r="D193" s="12"/>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D194" s="14"/>
+      <c r="D194" s="12"/>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D195" s="14"/>
+      <c r="D195" s="12"/>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D196" s="14"/>
+      <c r="D196" s="12"/>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D197" s="14"/>
+      <c r="D197" s="12"/>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D198" s="14"/>
+      <c r="D198" s="12"/>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D199" s="14"/>
+      <c r="D199" s="12"/>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D200" s="14"/>
+      <c r="D200" s="12"/>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D201" s="14"/>
+      <c r="D201" s="12"/>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D202" s="14"/>
+      <c r="D202" s="12"/>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D203" s="14"/>
+      <c r="D203" s="12"/>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D204" s="14"/>
+      <c r="D204" s="12"/>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D205" s="14"/>
+      <c r="D205" s="12"/>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D206" s="14"/>
+      <c r="D206" s="12"/>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D207" s="14"/>
+      <c r="D207" s="12"/>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D208" s="14"/>
+      <c r="D208" s="12"/>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D209" s="14"/>
+      <c r="D209" s="12"/>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D210" s="14"/>
+      <c r="D210" s="12"/>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D211" s="14"/>
+      <c r="D211" s="12"/>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D212" s="14"/>
+      <c r="D212" s="12"/>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D213" s="14"/>
+      <c r="D213" s="12"/>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D214" s="14"/>
+      <c r="D214" s="12"/>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D215" s="14"/>
+      <c r="D215" s="12"/>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D216" s="14"/>
+      <c r="D216" s="12"/>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D217" s="14"/>
+      <c r="D217" s="12"/>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D218" s="14"/>
+      <c r="D218" s="12"/>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D219" s="14"/>
+      <c r="D219" s="12"/>
     </row>
     <row r="220" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D220" s="14"/>
+      <c r="D220" s="12"/>
     </row>
     <row r="221" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D221" s="14"/>
+      <c r="D221" s="12"/>
     </row>
     <row r="222" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D222" s="14"/>
+      <c r="D222" s="12"/>
     </row>
     <row r="223" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D223" s="14"/>
+      <c r="D223" s="12"/>
     </row>
     <row r="224" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D224" s="14"/>
+      <c r="D224" s="12"/>
     </row>
     <row r="225" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D225" s="14"/>
+      <c r="D225" s="12"/>
     </row>
     <row r="226" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D226" s="14"/>
+      <c r="D226" s="12"/>
     </row>
     <row r="227" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D227" s="14"/>
+      <c r="D227" s="12"/>
     </row>
     <row r="228" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D228" s="14"/>
+      <c r="D228" s="12"/>
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D229" s="14"/>
+      <c r="D229" s="12"/>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D230" s="14"/>
+      <c r="D230" s="12"/>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D231" s="14"/>
+      <c r="D231" s="12"/>
     </row>
     <row r="232" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D232" s="14"/>
+      <c r="D232" s="12"/>
     </row>
     <row r="233" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D233" s="14"/>
+      <c r="D233" s="12"/>
     </row>
     <row r="234" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D234" s="14"/>
+      <c r="D234" s="12"/>
     </row>
     <row r="235" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D235" s="14"/>
+      <c r="D235" s="12"/>
     </row>
     <row r="236" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D236" s="14"/>
+      <c r="D236" s="12"/>
     </row>
     <row r="237" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D237" s="14"/>
+      <c r="D237" s="12"/>
     </row>
     <row r="238" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D238" s="14"/>
+      <c r="D238" s="12"/>
     </row>
     <row r="239" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D239" s="14"/>
+      <c r="D239" s="12"/>
     </row>
     <row r="240" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D240" s="14"/>
+      <c r="D240" s="12"/>
     </row>
     <row r="241" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D241" s="14"/>
+      <c r="D241" s="12"/>
     </row>
     <row r="242" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D242" s="14"/>
+      <c r="D242" s="12"/>
     </row>
     <row r="243" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D243" s="14"/>
+      <c r="D243" s="12"/>
     </row>
     <row r="244" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D244" s="14"/>
+      <c r="D244" s="12"/>
     </row>
     <row r="245" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D245" s="14"/>
+      <c r="D245" s="12"/>
     </row>
     <row r="246" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D246" s="14"/>
+      <c r="D246" s="12"/>
     </row>
     <row r="247" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D247" s="14"/>
+      <c r="D247" s="12"/>
     </row>
     <row r="248" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D248" s="14"/>
+      <c r="D248" s="12"/>
     </row>
     <row r="249" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D249" s="14"/>
+      <c r="D249" s="12"/>
     </row>
     <row r="250" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D250" s="14"/>
+      <c r="D250" s="12"/>
     </row>
     <row r="251" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D251" s="14"/>
+      <c r="D251" s="12"/>
     </row>
     <row r="252" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D252" s="14"/>
+      <c r="D252" s="12"/>
     </row>
     <row r="253" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D253" s="14"/>
+      <c r="D253" s="12"/>
     </row>
     <row r="254" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D254" s="14"/>
+      <c r="D254" s="12"/>
     </row>
     <row r="255" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D255" s="14"/>
+      <c r="D255" s="12"/>
     </row>
     <row r="256" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D256" s="14"/>
+      <c r="D256" s="12"/>
     </row>
     <row r="257" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D257" s="14"/>
+      <c r="D257" s="12"/>
     </row>
     <row r="258" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D258" s="14"/>
+      <c r="D258" s="12"/>
     </row>
     <row r="259" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D259" s="14"/>
+      <c r="D259" s="12"/>
     </row>
     <row r="260" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D260" s="14"/>
+      <c r="D260" s="12"/>
     </row>
     <row r="261" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D261" s="14"/>
+      <c r="D261" s="12"/>
     </row>
     <row r="262" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D262" s="14"/>
+      <c r="D262" s="12"/>
     </row>
     <row r="263" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D263" s="14"/>
+      <c r="D263" s="12"/>
     </row>
     <row r="264" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D264" s="14"/>
+      <c r="D264" s="12"/>
     </row>
     <row r="265" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D265" s="14"/>
+      <c r="D265" s="12"/>
     </row>
     <row r="266" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D266" s="14"/>
+      <c r="D266" s="12"/>
     </row>
     <row r="267" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D267" s="14"/>
+      <c r="D267" s="12"/>
     </row>
     <row r="268" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D268" s="14"/>
+      <c r="D268" s="12"/>
     </row>
     <row r="269" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D269" s="14"/>
+      <c r="D269" s="12"/>
     </row>
     <row r="270" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D270" s="14"/>
+      <c r="D270" s="12"/>
     </row>
     <row r="271" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D271" s="14"/>
+      <c r="D271" s="12"/>
     </row>
     <row r="272" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D272" s="14"/>
+      <c r="D272" s="12"/>
     </row>
     <row r="273" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D273" s="14"/>
+      <c r="D273" s="12"/>
     </row>
     <row r="274" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D274" s="14"/>
+      <c r="D274" s="12"/>
     </row>
     <row r="275" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D275" s="14"/>
+      <c r="D275" s="12"/>
     </row>
     <row r="276" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D276" s="14"/>
+      <c r="D276" s="12"/>
     </row>
     <row r="277" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D277" s="14"/>
+      <c r="D277" s="12"/>
     </row>
     <row r="278" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D278" s="14"/>
+      <c r="D278" s="12"/>
     </row>
     <row r="279" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D279" s="14"/>
+      <c r="D279" s="12"/>
     </row>
     <row r="280" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D280" s="14"/>
+      <c r="D280" s="12"/>
     </row>
     <row r="281" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D281" s="14"/>
+      <c r="D281" s="12"/>
     </row>
     <row r="282" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D282" s="14"/>
+      <c r="D282" s="12"/>
     </row>
     <row r="283" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D283" s="14"/>
+      <c r="D283" s="12"/>
     </row>
     <row r="284" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D284" s="14"/>
+      <c r="D284" s="12"/>
     </row>
     <row r="285" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D285" s="14"/>
+      <c r="D285" s="12"/>
     </row>
     <row r="286" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D286" s="14"/>
+      <c r="D286" s="12"/>
     </row>
     <row r="287" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D287" s="14"/>
+      <c r="D287" s="12"/>
     </row>
     <row r="288" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D288" s="14"/>
+      <c r="D288" s="12"/>
     </row>
     <row r="289" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D289" s="14"/>
+      <c r="D289" s="12"/>
     </row>
     <row r="290" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D290" s="14"/>
+      <c r="D290" s="12"/>
     </row>
     <row r="291" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D291" s="14"/>
+      <c r="D291" s="12"/>
     </row>
     <row r="292" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D292" s="14"/>
+      <c r="D292" s="12"/>
     </row>
     <row r="293" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D293" s="14"/>
+      <c r="D293" s="12"/>
     </row>
     <row r="294" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D294" s="14"/>
+      <c r="D294" s="12"/>
     </row>
     <row r="295" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D295" s="14"/>
+      <c r="D295" s="12"/>
     </row>
     <row r="296" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D296" s="14"/>
+      <c r="D296" s="12"/>
     </row>
     <row r="297" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D297" s="14"/>
+      <c r="D297" s="12"/>
     </row>
     <row r="298" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D298" s="14"/>
+      <c r="D298" s="12"/>
     </row>
     <row r="299" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D299" s="14"/>
+      <c r="D299" s="12"/>
     </row>
     <row r="300" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D300" s="14"/>
+      <c r="D300" s="12"/>
     </row>
     <row r="301" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D301" s="14"/>
+      <c r="D301" s="12"/>
     </row>
     <row r="302" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D302" s="14"/>
+      <c r="D302" s="12"/>
     </row>
     <row r="303" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D303" s="14"/>
+      <c r="D303" s="12"/>
     </row>
     <row r="304" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D304" s="14"/>
+      <c r="D304" s="12"/>
     </row>
     <row r="305" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D305" s="14"/>
+      <c r="D305" s="12"/>
     </row>
     <row r="306" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D306" s="14"/>
+      <c r="D306" s="12"/>
     </row>
     <row r="307" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D307" s="14"/>
+      <c r="D307" s="12"/>
     </row>
     <row r="308" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D308" s="14"/>
+      <c r="D308" s="12"/>
     </row>
     <row r="309" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D309" s="14"/>
+      <c r="D309" s="12"/>
     </row>
     <row r="310" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D310" s="14"/>
+      <c r="D310" s="12"/>
     </row>
     <row r="311" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D311" s="14"/>
+      <c r="D311" s="12"/>
     </row>
     <row r="312" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D312" s="14"/>
+      <c r="D312" s="12"/>
     </row>
     <row r="313" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D313" s="14"/>
+      <c r="D313" s="12"/>
     </row>
     <row r="314" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D314" s="14"/>
+      <c r="D314" s="12"/>
     </row>
     <row r="315" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D315" s="14"/>
+      <c r="D315" s="12"/>
     </row>
     <row r="316" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D316" s="14"/>
+      <c r="D316" s="12"/>
     </row>
     <row r="317" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D317" s="14"/>
+      <c r="D317" s="12"/>
     </row>
     <row r="318" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D318" s="14"/>
+      <c r="D318" s="12"/>
     </row>
     <row r="319" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D319" s="14"/>
+      <c r="D319" s="12"/>
     </row>
     <row r="320" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D320" s="14"/>
+      <c r="D320" s="12"/>
     </row>
     <row r="321" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D321" s="14"/>
+      <c r="D321" s="12"/>
     </row>
     <row r="322" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D322" s="14"/>
+      <c r="D322" s="12"/>
     </row>
     <row r="323" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D323" s="14"/>
+      <c r="D323" s="12"/>
     </row>
     <row r="324" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D324" s="14"/>
+      <c r="D324" s="12"/>
     </row>
     <row r="325" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D325" s="14"/>
+      <c r="D325" s="12"/>
     </row>
     <row r="326" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D326" s="14"/>
+      <c r="D326" s="12"/>
     </row>
     <row r="327" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D327" s="14"/>
+      <c r="D327" s="12"/>
     </row>
     <row r="328" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D328" s="14"/>
+      <c r="D328" s="12"/>
     </row>
     <row r="329" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D329" s="14"/>
+      <c r="D329" s="12"/>
     </row>
     <row r="330" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D330" s="14"/>
+      <c r="D330" s="12"/>
     </row>
     <row r="331" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D331" s="14"/>
+      <c r="D331" s="12"/>
     </row>
     <row r="332" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D332" s="14"/>
+      <c r="D332" s="12"/>
     </row>
     <row r="333" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D333" s="14"/>
+      <c r="D333" s="12"/>
     </row>
     <row r="334" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D334" s="14"/>
+      <c r="D334" s="12"/>
     </row>
     <row r="335" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D335" s="14"/>
+      <c r="D335" s="12"/>
     </row>
     <row r="336" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D336" s="14"/>
+      <c r="D336" s="12"/>
     </row>
     <row r="337" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D337" s="14"/>
+      <c r="D337" s="12"/>
     </row>
     <row r="338" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D338" s="14"/>
+      <c r="D338" s="12"/>
     </row>
     <row r="339" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D339" s="14"/>
+      <c r="D339" s="12"/>
     </row>
     <row r="340" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D340" s="14"/>
+      <c r="D340" s="12"/>
     </row>
     <row r="341" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D341" s="14"/>
+      <c r="D341" s="12"/>
     </row>
     <row r="342" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D342" s="14"/>
+      <c r="D342" s="12"/>
     </row>
     <row r="343" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D343" s="14"/>
+      <c r="D343" s="12"/>
     </row>
     <row r="344" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D344" s="14"/>
+      <c r="D344" s="12"/>
     </row>
     <row r="345" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D345" s="14"/>
+      <c r="D345" s="12"/>
     </row>
     <row r="346" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D346" s="14"/>
+      <c r="D346" s="12"/>
     </row>
     <row r="347" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D347" s="14"/>
+      <c r="D347" s="12"/>
     </row>
     <row r="348" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D348" s="14"/>
+      <c r="D348" s="12"/>
     </row>
     <row r="349" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D349" s="14"/>
+      <c r="D349" s="12"/>
     </row>
     <row r="350" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D350" s="14"/>
+      <c r="D350" s="12"/>
     </row>
     <row r="351" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D351" s="14"/>
+      <c r="D351" s="12"/>
     </row>
     <row r="352" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D352" s="14"/>
+      <c r="D352" s="12"/>
     </row>
     <row r="353" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D353" s="14"/>
+      <c r="D353" s="12"/>
     </row>
     <row r="354" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D354" s="14"/>
+      <c r="D354" s="12"/>
     </row>
     <row r="355" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D355" s="14"/>
+      <c r="D355" s="12"/>
     </row>
     <row r="356" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D356" s="14"/>
+      <c r="D356" s="12"/>
     </row>
     <row r="357" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D357" s="14"/>
+      <c r="D357" s="12"/>
     </row>
     <row r="358" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D358" s="14"/>
+      <c r="D358" s="12"/>
     </row>
     <row r="359" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D359" s="14"/>
+      <c r="D359" s="12"/>
     </row>
     <row r="360" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D360" s="14"/>
+      <c r="D360" s="12"/>
     </row>
     <row r="361" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D361" s="14"/>
+      <c r="D361" s="12"/>
     </row>
     <row r="362" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D362" s="14"/>
+      <c r="D362" s="12"/>
     </row>
     <row r="363" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D363" s="14"/>
+      <c r="D363" s="12"/>
     </row>
     <row r="364" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D364" s="14"/>
+      <c r="D364" s="12"/>
     </row>
     <row r="365" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D365" s="14"/>
+      <c r="D365" s="12"/>
     </row>
     <row r="366" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D366" s="14"/>
+      <c r="D366" s="12"/>
     </row>
     <row r="367" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D367" s="14"/>
+      <c r="D367" s="12"/>
     </row>
     <row r="368" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D368" s="14"/>
+      <c r="D368" s="12"/>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D369" s="14"/>
+      <c r="D369" s="12"/>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D370" s="14"/>
+      <c r="D370" s="12"/>
     </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D371" s="14"/>
+      <c r="D371" s="12"/>
     </row>
     <row r="372" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D372" s="14"/>
+      <c r="D372" s="12"/>
     </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D373" s="14"/>
+      <c r="D373" s="12"/>
     </row>
     <row r="374" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D374" s="14"/>
+      <c r="D374" s="12"/>
     </row>
     <row r="375" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D375" s="14"/>
+      <c r="D375" s="12"/>
     </row>
     <row r="376" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D376" s="14"/>
+      <c r="D376" s="12"/>
     </row>
     <row r="377" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D377" s="14"/>
+      <c r="D377" s="12"/>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D378" s="14"/>
+      <c r="D378" s="12"/>
     </row>
     <row r="379" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D379" s="14"/>
+      <c r="D379" s="12"/>
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D380" s="14"/>
+      <c r="D380" s="12"/>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D381" s="14"/>
+      <c r="D381" s="12"/>
     </row>
     <row r="382" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D382" s="14"/>
+      <c r="D382" s="12"/>
     </row>
     <row r="383" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D383" s="14"/>
+      <c r="D383" s="12"/>
     </row>
     <row r="384" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D384" s="14"/>
+      <c r="D384" s="12"/>
     </row>
     <row r="385" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D385" s="14"/>
+      <c r="D385" s="12"/>
     </row>
     <row r="386" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D386" s="14"/>
+      <c r="D386" s="12"/>
     </row>
     <row r="387" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D387" s="14"/>
+      <c r="D387" s="12"/>
     </row>
     <row r="388" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D388" s="14"/>
+      <c r="D388" s="12"/>
     </row>
     <row r="389" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D389" s="14"/>
+      <c r="D389" s="12"/>
     </row>
     <row r="390" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D390" s="14"/>
+      <c r="D390" s="12"/>
     </row>
     <row r="391" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D391" s="14"/>
+      <c r="D391" s="12"/>
     </row>
     <row r="392" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D392" s="14"/>
+      <c r="D392" s="12"/>
     </row>
     <row r="393" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D393" s="14"/>
+      <c r="D393" s="12"/>
     </row>
     <row r="394" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D394" s="14"/>
+      <c r="D394" s="12"/>
     </row>
     <row r="395" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D395" s="14"/>
+      <c r="D395" s="12"/>
     </row>
     <row r="396" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D396" s="14"/>
+      <c r="D396" s="12"/>
     </row>
     <row r="397" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D397" s="14"/>
+      <c r="D397" s="12"/>
     </row>
     <row r="398" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D398" s="14"/>
+      <c r="D398" s="12"/>
     </row>
     <row r="399" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D399" s="14"/>
+      <c r="D399" s="12"/>
     </row>
     <row r="400" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D400" s="14"/>
+      <c r="D400" s="12"/>
     </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D401" s="14"/>
+      <c r="D401" s="12"/>
     </row>
     <row r="402" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D402" s="14"/>
+      <c r="D402" s="12"/>
     </row>
     <row r="403" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D403" s="14"/>
+      <c r="D403" s="12"/>
     </row>
     <row r="404" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D404" s="14"/>
+      <c r="D404" s="12"/>
     </row>
     <row r="405" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D405" s="14"/>
+      <c r="D405" s="12"/>
     </row>
     <row r="406" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D406" s="14"/>
+      <c r="D406" s="12"/>
     </row>
     <row r="407" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D407" s="14"/>
+      <c r="D407" s="12"/>
     </row>
     <row r="408" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D408" s="14"/>
+      <c r="D408" s="12"/>
     </row>
     <row r="409" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D409" s="14"/>
+      <c r="D409" s="12"/>
     </row>
     <row r="410" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D410" s="14"/>
+      <c r="D410" s="12"/>
     </row>
     <row r="411" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D411" s="14"/>
+      <c r="D411" s="12"/>
     </row>
     <row r="412" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D412" s="14"/>
+      <c r="D412" s="12"/>
     </row>
     <row r="413" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D413" s="14"/>
+      <c r="D413" s="12"/>
     </row>
     <row r="414" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D414" s="14"/>
+      <c r="D414" s="12"/>
     </row>
     <row r="415" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D415" s="14"/>
+      <c r="D415" s="12"/>
     </row>
     <row r="416" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D416" s="14"/>
+      <c r="D416" s="12"/>
     </row>
     <row r="417" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D417" s="14"/>
+      <c r="D417" s="12"/>
     </row>
     <row r="418" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D418" s="14"/>
+      <c r="D418" s="12"/>
     </row>
     <row r="419" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D419" s="14"/>
+      <c r="D419" s="12"/>
     </row>
     <row r="420" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D420" s="14"/>
+      <c r="D420" s="12"/>
     </row>
     <row r="421" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D421" s="14"/>
+      <c r="D421" s="12"/>
     </row>
     <row r="422" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D422" s="14"/>
+      <c r="D422" s="12"/>
     </row>
     <row r="423" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D423" s="14"/>
+      <c r="D423" s="12"/>
     </row>
     <row r="424" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D424" s="14"/>
+      <c r="D424" s="12"/>
     </row>
     <row r="425" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D425" s="14"/>
+      <c r="D425" s="12"/>
     </row>
     <row r="426" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D426" s="14"/>
+      <c r="D426" s="12"/>
     </row>
     <row r="427" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D427" s="14"/>
+      <c r="D427" s="12"/>
     </row>
     <row r="428" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D428" s="14"/>
+      <c r="D428" s="12"/>
     </row>
     <row r="429" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D429" s="14"/>
+      <c r="D429" s="12"/>
     </row>
     <row r="430" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D430" s="14"/>
+      <c r="D430" s="12"/>
     </row>
     <row r="431" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D431" s="14"/>
+      <c r="D431" s="12"/>
     </row>
     <row r="432" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D432" s="14"/>
+      <c r="D432" s="12"/>
     </row>
     <row r="433" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D433" s="14"/>
+      <c r="D433" s="12"/>
     </row>
     <row r="434" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D434" s="14"/>
+      <c r="D434" s="12"/>
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D435" s="14"/>
+      <c r="D435" s="12"/>
     </row>
     <row r="436" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D436" s="14"/>
+      <c r="D436" s="12"/>
     </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D437" s="14"/>
+      <c r="D437" s="12"/>
     </row>
     <row r="438" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D438" s="14"/>
+      <c r="D438" s="12"/>
     </row>
     <row r="439" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D439" s="14"/>
+      <c r="D439" s="12"/>
     </row>
     <row r="440" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D440" s="14"/>
+      <c r="D440" s="12"/>
     </row>
     <row r="441" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D441" s="14"/>
+      <c r="D441" s="12"/>
     </row>
     <row r="442" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D442" s="14"/>
+      <c r="D442" s="12"/>
     </row>
     <row r="443" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D443" s="14"/>
+      <c r="D443" s="12"/>
     </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D444" s="14"/>
+      <c r="D444" s="12"/>
     </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D445" s="14"/>
+      <c r="D445" s="12"/>
     </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D446" s="14"/>
+      <c r="D446" s="12"/>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D447" s="14"/>
+      <c r="D447" s="12"/>
     </row>
     <row r="448" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D448" s="14"/>
+      <c r="D448" s="12"/>
     </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D449" s="14"/>
+      <c r="D449" s="12"/>
     </row>
     <row r="450" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D450" s="14"/>
+      <c r="D450" s="12"/>
     </row>
     <row r="451" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D451" s="14"/>
+      <c r="D451" s="12"/>
     </row>
     <row r="452" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D452" s="14"/>
+      <c r="D452" s="12"/>
     </row>
     <row r="453" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D453" s="14"/>
+      <c r="D453" s="12"/>
     </row>
     <row r="454" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D454" s="14"/>
+      <c r="D454" s="12"/>
     </row>
     <row r="455" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D455" s="14"/>
+      <c r="D455" s="12"/>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D456" s="14"/>
+      <c r="D456" s="12"/>
     </row>
     <row r="457" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D457" s="14"/>
+      <c r="D457" s="12"/>
     </row>
     <row r="458" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D458" s="14"/>
+      <c r="D458" s="12"/>
     </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D459" s="14"/>
+      <c r="D459" s="12"/>
     </row>
     <row r="460" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D460" s="14"/>
+      <c r="D460" s="12"/>
     </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D461" s="14"/>
+      <c r="D461" s="12"/>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D462" s="14"/>
+      <c r="D462" s="12"/>
     </row>
     <row r="463" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D463" s="14"/>
+      <c r="D463" s="12"/>
     </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D464" s="14"/>
+      <c r="D464" s="12"/>
     </row>
     <row r="465" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D465" s="14"/>
+      <c r="D465" s="12"/>
     </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D466" s="14"/>
+      <c r="D466" s="12"/>
     </row>
     <row r="467" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D467" s="14"/>
+      <c r="D467" s="12"/>
     </row>
     <row r="468" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D468" s="14"/>
+      <c r="D468" s="12"/>
     </row>
     <row r="469" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D469" s="14"/>
+      <c r="D469" s="12"/>
     </row>
     <row r="470" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D470" s="14"/>
+      <c r="D470" s="12"/>
     </row>
     <row r="471" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D471" s="14"/>
+      <c r="D471" s="12"/>
     </row>
     <row r="472" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D472" s="14"/>
+      <c r="D472" s="12"/>
     </row>
     <row r="473" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D473" s="14"/>
+      <c r="D473" s="12"/>
     </row>
     <row r="474" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D474" s="14"/>
+      <c r="D474" s="12"/>
     </row>
     <row r="475" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D475" s="14"/>
+      <c r="D475" s="12"/>
     </row>
     <row r="476" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D476" s="14"/>
+      <c r="D476" s="12"/>
     </row>
     <row r="477" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D477" s="14"/>
+      <c r="D477" s="12"/>
     </row>
     <row r="478" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D478" s="14"/>
+      <c r="D478" s="12"/>
     </row>
     <row r="479" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D479" s="14"/>
+      <c r="D479" s="12"/>
     </row>
     <row r="480" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D480" s="14"/>
+      <c r="D480" s="12"/>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D481" s="14"/>
+      <c r="D481" s="12"/>
     </row>
     <row r="482" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D482" s="14"/>
+      <c r="D482" s="12"/>
     </row>
     <row r="483" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D483" s="14"/>
+      <c r="D483" s="12"/>
     </row>
     <row r="484" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D484" s="14"/>
+      <c r="D484" s="12"/>
     </row>
     <row r="485" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D485" s="14"/>
+      <c r="D485" s="12"/>
     </row>
     <row r="486" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D486" s="14"/>
+      <c r="D486" s="12"/>
     </row>
     <row r="487" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D487" s="14"/>
+      <c r="D487" s="12"/>
     </row>
     <row r="488" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D488" s="14"/>
+      <c r="D488" s="12"/>
     </row>
     <row r="489" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D489" s="14"/>
+      <c r="D489" s="12"/>
     </row>
     <row r="490" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D490" s="14"/>
+      <c r="D490" s="12"/>
     </row>
     <row r="491" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D491" s="14"/>
+      <c r="D491" s="12"/>
     </row>
     <row r="492" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D492" s="14"/>
+      <c r="D492" s="12"/>
     </row>
     <row r="493" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D493" s="14"/>
+      <c r="D493" s="12"/>
     </row>
     <row r="494" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D494" s="14"/>
+      <c r="D494" s="12"/>
     </row>
     <row r="495" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D495" s="14"/>
+      <c r="D495" s="12"/>
     </row>
     <row r="496" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D496" s="14"/>
+      <c r="D496" s="12"/>
     </row>
     <row r="497" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D497" s="14"/>
+      <c r="D497" s="12"/>
     </row>
     <row r="498" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D498" s="14"/>
+      <c r="D498" s="12"/>
     </row>
     <row r="499" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D499" s="14"/>
+      <c r="D499" s="12"/>
     </row>
     <row r="500" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D500" s="14"/>
+      <c r="D500" s="12"/>
     </row>
     <row r="501" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D501" s="14"/>
+      <c r="D501" s="12"/>
     </row>
     <row r="502" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D502" s="14"/>
+      <c r="D502" s="12"/>
     </row>
     <row r="503" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D503" s="14"/>
+      <c r="D503" s="12"/>
     </row>
     <row r="504" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D504" s="14"/>
+      <c r="D504" s="12"/>
     </row>
     <row r="505" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D505" s="14"/>
+      <c r="D505" s="12"/>
     </row>
     <row r="506" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D506" s="14"/>
+      <c r="D506" s="12"/>
     </row>
     <row r="507" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D507" s="14"/>
+      <c r="D507" s="12"/>
     </row>
     <row r="508" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D508" s="14"/>
+      <c r="D508" s="12"/>
     </row>
     <row r="509" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D509" s="14"/>
+      <c r="D509" s="12"/>
     </row>
     <row r="510" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D510" s="14"/>
+      <c r="D510" s="12"/>
     </row>
     <row r="511" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D511" s="14"/>
+      <c r="D511" s="12"/>
     </row>
     <row r="512" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D512" s="14"/>
+      <c r="D512" s="12"/>
     </row>
     <row r="513" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D513" s="14"/>
+      <c r="D513" s="12"/>
     </row>
     <row r="514" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D514" s="14"/>
+      <c r="D514" s="12"/>
     </row>
     <row r="515" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D515" s="14"/>
+      <c r="D515" s="12"/>
     </row>
     <row r="516" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D516" s="14"/>
+      <c r="D516" s="12"/>
     </row>
     <row r="517" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D517" s="14"/>
+      <c r="D517" s="12"/>
     </row>
     <row r="518" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D518" s="14"/>
+      <c r="D518" s="12"/>
     </row>
     <row r="519" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D519" s="14"/>
+      <c r="D519" s="12"/>
     </row>
     <row r="520" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D520" s="14"/>
+      <c r="D520" s="12"/>
     </row>
     <row r="521" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D521" s="14"/>
+      <c r="D521" s="12"/>
     </row>
     <row r="522" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D522" s="14"/>
+      <c r="D522" s="12"/>
     </row>
     <row r="523" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D523" s="14"/>
+      <c r="D523" s="12"/>
     </row>
     <row r="524" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D524" s="14"/>
+      <c r="D524" s="12"/>
     </row>
     <row r="525" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D525" s="14"/>
+      <c r="D525" s="12"/>
     </row>
     <row r="526" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D526" s="14"/>
+      <c r="D526" s="12"/>
     </row>
     <row r="527" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D527" s="14"/>
+      <c r="D527" s="12"/>
     </row>
     <row r="528" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D528" s="14"/>
+      <c r="D528" s="12"/>
     </row>
     <row r="529" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D529" s="14"/>
+      <c r="D529" s="12"/>
     </row>
     <row r="530" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D530" s="14"/>
+      <c r="D530" s="12"/>
     </row>
     <row r="531" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D531" s="14"/>
+      <c r="D531" s="12"/>
     </row>
     <row r="532" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D532" s="14"/>
+      <c r="D532" s="12"/>
     </row>
     <row r="533" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D533" s="14"/>
+      <c r="D533" s="12"/>
     </row>
     <row r="534" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D534" s="14"/>
+      <c r="D534" s="12"/>
     </row>
     <row r="535" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D535" s="14"/>
+      <c r="D535" s="12"/>
     </row>
     <row r="536" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D536" s="14"/>
+      <c r="D536" s="12"/>
     </row>
     <row r="537" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D537" s="14"/>
+      <c r="D537" s="12"/>
     </row>
     <row r="538" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D538" s="14"/>
+      <c r="D538" s="12"/>
     </row>
     <row r="539" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D539" s="14"/>
+      <c r="D539" s="12"/>
     </row>
     <row r="540" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D540" s="14"/>
+      <c r="D540" s="12"/>
     </row>
     <row r="541" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D541" s="14"/>
+      <c r="D541" s="12"/>
     </row>
     <row r="542" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D542" s="14"/>
+      <c r="D542" s="12"/>
     </row>
     <row r="543" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D543" s="14"/>
+      <c r="D543" s="12"/>
     </row>
     <row r="544" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D544" s="14"/>
+      <c r="D544" s="12"/>
     </row>
     <row r="545" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D545" s="14"/>
+      <c r="D545" s="12"/>
     </row>
     <row r="546" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D546" s="14"/>
+      <c r="D546" s="12"/>
     </row>
     <row r="547" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D547" s="14"/>
+      <c r="D547" s="12"/>
     </row>
     <row r="548" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D548" s="14"/>
+      <c r="D548" s="12"/>
     </row>
     <row r="549" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D549" s="14"/>
+      <c r="D549" s="12"/>
     </row>
     <row r="550" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D550" s="14"/>
+      <c r="D550" s="12"/>
     </row>
     <row r="551" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D551" s="14"/>
+      <c r="D551" s="12"/>
     </row>
     <row r="552" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D552" s="14"/>
+      <c r="D552" s="12"/>
     </row>
     <row r="553" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D553" s="14"/>
+      <c r="D553" s="12"/>
     </row>
     <row r="554" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D554" s="14"/>
+      <c r="D554" s="12"/>
     </row>
     <row r="555" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D555" s="14"/>
+      <c r="D555" s="12"/>
     </row>
     <row r="556" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D556" s="14"/>
+      <c r="D556" s="12"/>
     </row>
     <row r="557" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D557" s="14"/>
+      <c r="D557" s="12"/>
     </row>
     <row r="558" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D558" s="14"/>
+      <c r="D558" s="12"/>
     </row>
     <row r="559" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D559" s="14"/>
+      <c r="D559" s="12"/>
     </row>
     <row r="560" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D560" s="14"/>
+      <c r="D560" s="12"/>
     </row>
     <row r="561" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D561" s="14"/>
+      <c r="D561" s="12"/>
     </row>
     <row r="562" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D562" s="14"/>
+      <c r="D562" s="12"/>
     </row>
     <row r="563" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D563" s="14"/>
+      <c r="D563" s="12"/>
     </row>
     <row r="564" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D564" s="14"/>
+      <c r="D564" s="12"/>
     </row>
     <row r="565" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D565" s="14"/>
+      <c r="D565" s="12"/>
     </row>
     <row r="566" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D566" s="14"/>
+      <c r="D566" s="12"/>
     </row>
     <row r="567" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D567" s="14"/>
+      <c r="D567" s="12"/>
     </row>
     <row r="568" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D568" s="14"/>
+      <c r="D568" s="12"/>
     </row>
     <row r="569" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D569" s="14"/>
+      <c r="D569" s="12"/>
     </row>
     <row r="570" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D570" s="14"/>
+      <c r="D570" s="12"/>
     </row>
     <row r="571" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D571" s="14"/>
+      <c r="D571" s="12"/>
     </row>
     <row r="572" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D572" s="14"/>
+      <c r="D572" s="12"/>
     </row>
     <row r="573" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D573" s="14"/>
+      <c r="D573" s="12"/>
     </row>
     <row r="574" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D574" s="14"/>
+      <c r="D574" s="12"/>
     </row>
     <row r="575" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D575" s="14"/>
+      <c r="D575" s="12"/>
     </row>
     <row r="576" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D576" s="14"/>
+      <c r="D576" s="12"/>
     </row>
     <row r="577" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D577" s="14"/>
+      <c r="D577" s="12"/>
     </row>
     <row r="578" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D578" s="14"/>
+      <c r="D578" s="12"/>
     </row>
     <row r="579" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D579" s="14"/>
+      <c r="D579" s="12"/>
     </row>
     <row r="580" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D580" s="14"/>
+      <c r="D580" s="12"/>
     </row>
     <row r="581" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D581" s="14"/>
+      <c r="D581" s="12"/>
     </row>
     <row r="582" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D582" s="14"/>
+      <c r="D582" s="12"/>
     </row>
     <row r="583" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D583" s="14"/>
+      <c r="D583" s="12"/>
     </row>
     <row r="584" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D584" s="14"/>
+      <c r="D584" s="12"/>
     </row>
     <row r="585" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D585" s="14"/>
+      <c r="D585" s="12"/>
     </row>
     <row r="586" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D586" s="14"/>
+      <c r="D586" s="12"/>
     </row>
     <row r="587" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D587" s="14"/>
+      <c r="D587" s="12"/>
     </row>
     <row r="588" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D588" s="14"/>
+      <c r="D588" s="12"/>
     </row>
     <row r="589" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D589" s="14"/>
+      <c r="D589" s="12"/>
     </row>
     <row r="590" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D590" s="14"/>
+      <c r="D590" s="12"/>
     </row>
     <row r="591" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D591" s="14"/>
+      <c r="D591" s="12"/>
     </row>
     <row r="592" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D592" s="14"/>
+      <c r="D592" s="12"/>
     </row>
     <row r="593" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D593" s="14"/>
+      <c r="D593" s="12"/>
     </row>
     <row r="594" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D594" s="14"/>
+      <c r="D594" s="12"/>
     </row>
     <row r="595" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D595" s="14"/>
+      <c r="D595" s="12"/>
     </row>
     <row r="596" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D596" s="14"/>
+      <c r="D596" s="12"/>
     </row>
     <row r="597" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D597" s="14"/>
+      <c r="D597" s="12"/>
     </row>
     <row r="598" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D598" s="14"/>
+      <c r="D598" s="12"/>
     </row>
     <row r="599" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D599" s="14"/>
+      <c r="D599" s="12"/>
     </row>
     <row r="600" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D600" s="14"/>
+      <c r="D600" s="12"/>
     </row>
     <row r="601" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D601" s="14"/>
+      <c r="D601" s="12"/>
     </row>
     <row r="602" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D602" s="14"/>
+      <c r="D602" s="12"/>
     </row>
     <row r="603" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D603" s="14"/>
+      <c r="D603" s="12"/>
     </row>
     <row r="604" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D604" s="14"/>
+      <c r="D604" s="12"/>
     </row>
     <row r="605" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D605" s="14"/>
+      <c r="D605" s="12"/>
     </row>
     <row r="606" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D606" s="14"/>
+      <c r="D606" s="12"/>
     </row>
     <row r="607" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D607" s="14"/>
+      <c r="D607" s="12"/>
     </row>
     <row r="608" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D608" s="14"/>
+      <c r="D608" s="12"/>
     </row>
     <row r="609" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D609" s="14"/>
+      <c r="D609" s="12"/>
     </row>
     <row r="610" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D610" s="14"/>
+      <c r="D610" s="12"/>
     </row>
     <row r="611" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D611" s="14"/>
+      <c r="D611" s="12"/>
     </row>
     <row r="612" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D612" s="14"/>
+      <c r="D612" s="12"/>
     </row>
     <row r="613" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D613" s="14"/>
+      <c r="D613" s="12"/>
     </row>
     <row r="614" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D614" s="14"/>
+      <c r="D614" s="12"/>
     </row>
     <row r="615" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D615" s="14"/>
+      <c r="D615" s="12"/>
     </row>
     <row r="616" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D616" s="14"/>
+      <c r="D616" s="12"/>
     </row>
     <row r="617" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D617" s="14"/>
+      <c r="D617" s="12"/>
     </row>
     <row r="618" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D618" s="14"/>
+      <c r="D618" s="12"/>
     </row>
     <row r="619" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D619" s="14"/>
+      <c r="D619" s="12"/>
     </row>
     <row r="620" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D620" s="14"/>
+      <c r="D620" s="12"/>
     </row>
     <row r="621" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D621" s="14"/>
+      <c r="D621" s="12"/>
     </row>
     <row r="622" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D622" s="14"/>
+      <c r="D622" s="12"/>
     </row>
     <row r="623" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D623" s="14"/>
+      <c r="D623" s="12"/>
     </row>
     <row r="624" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D624" s="14"/>
+      <c r="D624" s="12"/>
     </row>
     <row r="625" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D625" s="14"/>
+      <c r="D625" s="12"/>
     </row>
     <row r="626" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D626" s="14"/>
+      <c r="D626" s="12"/>
     </row>
     <row r="627" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D627" s="14"/>
+      <c r="D627" s="12"/>
     </row>
     <row r="628" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D628" s="14"/>
+      <c r="D628" s="12"/>
     </row>
     <row r="629" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D629" s="14"/>
+      <c r="D629" s="12"/>
     </row>
     <row r="630" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D630" s="14"/>
+      <c r="D630" s="12"/>
     </row>
     <row r="631" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D631" s="14"/>
+      <c r="D631" s="12"/>
     </row>
     <row r="632" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D632" s="14"/>
+      <c r="D632" s="12"/>
     </row>
     <row r="633" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D633" s="14"/>
+      <c r="D633" s="12"/>
     </row>
     <row r="634" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D634" s="14"/>
+      <c r="D634" s="12"/>
     </row>
     <row r="635" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D635" s="14"/>
+      <c r="D635" s="12"/>
     </row>
     <row r="636" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D636" s="14"/>
+      <c r="D636" s="12"/>
     </row>
     <row r="637" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D637" s="14"/>
+      <c r="D637" s="12"/>
     </row>
     <row r="638" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D638" s="14"/>
+      <c r="D638" s="12"/>
     </row>
     <row r="639" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D639" s="14"/>
+      <c r="D639" s="12"/>
     </row>
     <row r="640" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D640" s="14"/>
+      <c r="D640" s="12"/>
     </row>
     <row r="641" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D641" s="14"/>
+      <c r="D641" s="12"/>
     </row>
     <row r="642" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D642" s="14"/>
+      <c r="D642" s="12"/>
     </row>
     <row r="643" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D643" s="14"/>
+      <c r="D643" s="12"/>
     </row>
     <row r="644" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D644" s="14"/>
+      <c r="D644" s="12"/>
     </row>
     <row r="645" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D645" s="14"/>
+      <c r="D645" s="12"/>
     </row>
     <row r="646" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D646" s="14"/>
+      <c r="D646" s="12"/>
     </row>
     <row r="647" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D647" s="14"/>
+      <c r="D647" s="12"/>
     </row>
     <row r="648" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D648" s="14"/>
+      <c r="D648" s="12"/>
     </row>
     <row r="649" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D649" s="14"/>
+      <c r="D649" s="12"/>
     </row>
     <row r="650" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D650" s="14"/>
+      <c r="D650" s="12"/>
     </row>
     <row r="651" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D651" s="14"/>
+      <c r="D651" s="12"/>
     </row>
     <row r="652" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D652" s="14"/>
+      <c r="D652" s="12"/>
     </row>
     <row r="653" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D653" s="14"/>
+      <c r="D653" s="12"/>
     </row>
     <row r="654" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D654" s="14"/>
+      <c r="D654" s="12"/>
     </row>
     <row r="655" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D655" s="14"/>
+      <c r="D655" s="12"/>
     </row>
     <row r="656" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D656" s="14"/>
+      <c r="D656" s="12"/>
     </row>
     <row r="657" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D657" s="14"/>
+      <c r="D657" s="12"/>
     </row>
     <row r="658" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D658" s="14"/>
+      <c r="D658" s="12"/>
     </row>
     <row r="659" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D659" s="14"/>
+      <c r="D659" s="12"/>
     </row>
     <row r="660" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D660" s="14"/>
+      <c r="D660" s="12"/>
     </row>
     <row r="661" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D661" s="14"/>
+      <c r="D661" s="12"/>
     </row>
     <row r="662" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D662" s="14"/>
+      <c r="D662" s="12"/>
     </row>
     <row r="663" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D663" s="14"/>
+      <c r="D663" s="12"/>
     </row>
     <row r="664" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D664" s="14"/>
+      <c r="D664" s="12"/>
     </row>
     <row r="665" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D665" s="14"/>
+      <c r="D665" s="12"/>
     </row>
     <row r="666" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D666" s="14"/>
+      <c r="D666" s="12"/>
     </row>
     <row r="667" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D667" s="14"/>
+      <c r="D667" s="12"/>
     </row>
     <row r="668" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D668" s="14"/>
+      <c r="D668" s="12"/>
     </row>
     <row r="669" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D669" s="14"/>
+      <c r="D669" s="12"/>
     </row>
     <row r="670" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D670" s="14"/>
+      <c r="D670" s="12"/>
     </row>
     <row r="671" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D671" s="14"/>
+      <c r="D671" s="12"/>
     </row>
     <row r="672" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D672" s="14"/>
+      <c r="D672" s="12"/>
     </row>
     <row r="673" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D673" s="14"/>
+      <c r="D673" s="12"/>
     </row>
     <row r="674" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D674" s="14"/>
+      <c r="D674" s="12"/>
     </row>
     <row r="675" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D675" s="14"/>
+      <c r="D675" s="12"/>
     </row>
     <row r="676" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D676" s="14"/>
+      <c r="D676" s="12"/>
     </row>
     <row r="677" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D677" s="14"/>
+      <c r="D677" s="12"/>
     </row>
     <row r="678" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D678" s="14"/>
+      <c r="D678" s="12"/>
     </row>
     <row r="679" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D679" s="14"/>
+      <c r="D679" s="12"/>
     </row>
     <row r="680" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D680" s="14"/>
+      <c r="D680" s="12"/>
     </row>
     <row r="681" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D681" s="14"/>
+      <c r="D681" s="12"/>
     </row>
     <row r="682" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D682" s="14"/>
+      <c r="D682" s="12"/>
     </row>
     <row r="683" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D683" s="14"/>
+      <c r="D683" s="12"/>
     </row>
     <row r="684" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D684" s="14"/>
+      <c r="D684" s="12"/>
     </row>
     <row r="685" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D685" s="14"/>
+      <c r="D685" s="12"/>
     </row>
     <row r="686" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D686" s="14"/>
+      <c r="D686" s="12"/>
     </row>
     <row r="687" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D687" s="14"/>
+      <c r="D687" s="12"/>
     </row>
     <row r="688" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D688" s="14"/>
+      <c r="D688" s="12"/>
     </row>
     <row r="689" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D689" s="14"/>
+      <c r="D689" s="12"/>
     </row>
     <row r="690" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D690" s="14"/>
+      <c r="D690" s="12"/>
     </row>
     <row r="691" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D691" s="14"/>
+      <c r="D691" s="12"/>
     </row>
     <row r="692" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D692" s="14"/>
+      <c r="D692" s="12"/>
     </row>
     <row r="693" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D693" s="14"/>
+      <c r="D693" s="12"/>
     </row>
     <row r="694" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D694" s="14"/>
+      <c r="D694" s="12"/>
     </row>
     <row r="695" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D695" s="14"/>
+      <c r="D695" s="12"/>
     </row>
     <row r="696" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D696" s="14"/>
+      <c r="D696" s="12"/>
     </row>
     <row r="697" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D697" s="14"/>
+      <c r="D697" s="12"/>
     </row>
     <row r="698" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D698" s="14"/>
+      <c r="D698" s="12"/>
     </row>
     <row r="699" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D699" s="14"/>
+      <c r="D699" s="12"/>
     </row>
     <row r="700" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D700" s="14"/>
+      <c r="D700" s="12"/>
     </row>
     <row r="701" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D701" s="14"/>
+      <c r="D701" s="12"/>
     </row>
     <row r="702" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D702" s="14"/>
+      <c r="D702" s="12"/>
     </row>
     <row r="703" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D703" s="14"/>
+      <c r="D703" s="12"/>
     </row>
     <row r="704" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D704" s="14"/>
+      <c r="D704" s="12"/>
     </row>
     <row r="705" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D705" s="14"/>
+      <c r="D705" s="12"/>
     </row>
     <row r="706" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D706" s="14"/>
+      <c r="D706" s="12"/>
     </row>
     <row r="707" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D707" s="14"/>
+      <c r="D707" s="12"/>
     </row>
     <row r="708" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D708" s="14"/>
+      <c r="D708" s="12"/>
     </row>
     <row r="709" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D709" s="14"/>
+      <c r="D709" s="12"/>
     </row>
     <row r="710" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D710" s="14"/>
+      <c r="D710" s="12"/>
     </row>
     <row r="711" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D711" s="14"/>
+      <c r="D711" s="12"/>
     </row>
     <row r="712" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D712" s="14"/>
+      <c r="D712" s="12"/>
     </row>
     <row r="713" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D713" s="14"/>
+      <c r="D713" s="12"/>
     </row>
     <row r="714" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D714" s="14"/>
+      <c r="D714" s="12"/>
     </row>
     <row r="715" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D715" s="14"/>
+      <c r="D715" s="12"/>
     </row>
     <row r="716" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D716" s="14"/>
+      <c r="D716" s="12"/>
     </row>
     <row r="717" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D717" s="14"/>
+      <c r="D717" s="12"/>
     </row>
     <row r="718" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D718" s="14"/>
+      <c r="D718" s="12"/>
     </row>
     <row r="719" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D719" s="14"/>
+      <c r="D719" s="12"/>
     </row>
     <row r="720" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D720" s="14"/>
+      <c r="D720" s="12"/>
     </row>
     <row r="721" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D721" s="14"/>
+      <c r="D721" s="12"/>
     </row>
     <row r="722" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D722" s="14"/>
+      <c r="D722" s="12"/>
     </row>
     <row r="723" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D723" s="14"/>
+      <c r="D723" s="12"/>
     </row>
     <row r="724" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D724" s="14"/>
+      <c r="D724" s="12"/>
     </row>
     <row r="725" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D725" s="14"/>
+      <c r="D725" s="12"/>
     </row>
     <row r="726" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D726" s="14"/>
+      <c r="D726" s="12"/>
     </row>
     <row r="727" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D727" s="14"/>
+      <c r="D727" s="12"/>
     </row>
     <row r="728" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D728" s="14"/>
+      <c r="D728" s="12"/>
     </row>
     <row r="729" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D729" s="14"/>
+      <c r="D729" s="12"/>
     </row>
     <row r="730" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D730" s="14"/>
+      <c r="D730" s="12"/>
     </row>
     <row r="731" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D731" s="14"/>
+      <c r="D731" s="12"/>
     </row>
     <row r="732" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D732" s="14"/>
+      <c r="D732" s="12"/>
     </row>
     <row r="733" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D733" s="14"/>
+      <c r="D733" s="12"/>
     </row>
     <row r="734" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D734" s="14"/>
+      <c r="D734" s="12"/>
     </row>
     <row r="735" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D735" s="14"/>
+      <c r="D735" s="12"/>
     </row>
     <row r="736" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D736" s="14"/>
+      <c r="D736" s="12"/>
     </row>
     <row r="737" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D737" s="14"/>
+      <c r="D737" s="12"/>
     </row>
     <row r="738" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D738" s="14"/>
+      <c r="D738" s="12"/>
     </row>
     <row r="739" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D739" s="14"/>
+      <c r="D739" s="12"/>
     </row>
     <row r="740" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D740" s="14"/>
+      <c r="D740" s="12"/>
     </row>
     <row r="741" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D741" s="14"/>
+      <c r="D741" s="12"/>
     </row>
     <row r="742" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D742" s="14"/>
+      <c r="D742" s="12"/>
     </row>
     <row r="743" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D743" s="14"/>
+      <c r="D743" s="12"/>
     </row>
     <row r="744" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D744" s="14"/>
+      <c r="D744" s="12"/>
     </row>
     <row r="745" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D745" s="14"/>
+      <c r="D745" s="12"/>
     </row>
     <row r="746" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D746" s="14"/>
+      <c r="D746" s="12"/>
     </row>
     <row r="747" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D747" s="14"/>
+      <c r="D747" s="12"/>
     </row>
     <row r="748" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D748" s="14"/>
+      <c r="D748" s="12"/>
     </row>
     <row r="749" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D749" s="14"/>
+      <c r="D749" s="12"/>
     </row>
     <row r="750" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D750" s="14"/>
+      <c r="D750" s="12"/>
     </row>
     <row r="751" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D751" s="14"/>
+      <c r="D751" s="12"/>
     </row>
     <row r="752" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D752" s="14"/>
+      <c r="D752" s="12"/>
     </row>
     <row r="753" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D753" s="14"/>
+      <c r="D753" s="12"/>
     </row>
     <row r="754" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D754" s="14"/>
+      <c r="D754" s="12"/>
     </row>
     <row r="755" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D755" s="14"/>
+      <c r="D755" s="12"/>
     </row>
     <row r="756" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D756" s="14"/>
+      <c r="D756" s="12"/>
     </row>
     <row r="757" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D757" s="14"/>
+      <c r="D757" s="12"/>
     </row>
     <row r="758" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D758" s="14"/>
+      <c r="D758" s="12"/>
     </row>
     <row r="759" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D759" s="14"/>
+      <c r="D759" s="12"/>
     </row>
     <row r="760" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D760" s="14"/>
+      <c r="D760" s="12"/>
     </row>
     <row r="761" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D761" s="14"/>
+      <c r="D761" s="12"/>
     </row>
     <row r="762" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D762" s="14"/>
+      <c r="D762" s="12"/>
     </row>
     <row r="763" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D763" s="14"/>
+      <c r="D763" s="12"/>
     </row>
     <row r="764" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D764" s="14"/>
+      <c r="D764" s="12"/>
     </row>
     <row r="765" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D765" s="14"/>
+      <c r="D765" s="12"/>
     </row>
     <row r="766" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D766" s="14"/>
+      <c r="D766" s="12"/>
     </row>
     <row r="767" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D767" s="14"/>
+      <c r="D767" s="12"/>
     </row>
     <row r="768" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D768" s="14"/>
+      <c r="D768" s="12"/>
     </row>
     <row r="769" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D769" s="14"/>
+      <c r="D769" s="12"/>
     </row>
     <row r="770" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D770" s="14"/>
+      <c r="D770" s="12"/>
     </row>
     <row r="771" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D771" s="14"/>
+      <c r="D771" s="12"/>
     </row>
     <row r="772" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D772" s="14"/>
+      <c r="D772" s="12"/>
     </row>
     <row r="773" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D773" s="14"/>
+      <c r="D773" s="12"/>
     </row>
     <row r="774" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D774" s="14"/>
+      <c r="D774" s="12"/>
     </row>
     <row r="775" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D775" s="14"/>
+      <c r="D775" s="12"/>
     </row>
     <row r="776" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D776" s="14"/>
+      <c r="D776" s="12"/>
     </row>
     <row r="777" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D777" s="14"/>
+      <c r="D777" s="12"/>
     </row>
     <row r="778" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D778" s="14"/>
+      <c r="D778" s="12"/>
     </row>
     <row r="779" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D779" s="14"/>
+      <c r="D779" s="12"/>
     </row>
     <row r="780" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D780" s="14"/>
+      <c r="D780" s="12"/>
     </row>
     <row r="781" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D781" s="14"/>
+      <c r="D781" s="12"/>
     </row>
     <row r="782" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D782" s="14"/>
+      <c r="D782" s="12"/>
     </row>
     <row r="783" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D783" s="14"/>
+      <c r="D783" s="12"/>
     </row>
     <row r="784" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D784" s="14"/>
+      <c r="D784" s="12"/>
     </row>
     <row r="785" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D785" s="14"/>
+      <c r="D785" s="12"/>
     </row>
     <row r="786" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D786" s="14"/>
+      <c r="D786" s="12"/>
     </row>
     <row r="787" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D787" s="14"/>
+      <c r="D787" s="12"/>
     </row>
     <row r="788" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D788" s="14"/>
+      <c r="D788" s="12"/>
     </row>
     <row r="789" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D789" s="14"/>
+      <c r="D789" s="12"/>
     </row>
     <row r="790" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D790" s="14"/>
+      <c r="D790" s="12"/>
     </row>
     <row r="791" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D791" s="14"/>
+      <c r="D791" s="12"/>
     </row>
     <row r="792" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D792" s="14"/>
+      <c r="D792" s="12"/>
     </row>
     <row r="793" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D793" s="14"/>
+      <c r="D793" s="12"/>
     </row>
     <row r="794" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D794" s="14"/>
+      <c r="D794" s="12"/>
     </row>
     <row r="795" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D795" s="14"/>
+      <c r="D795" s="12"/>
     </row>
     <row r="796" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D796" s="14"/>
+      <c r="D796" s="12"/>
     </row>
     <row r="797" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D797" s="14"/>
+      <c r="D797" s="12"/>
     </row>
     <row r="798" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D798" s="14"/>
+      <c r="D798" s="12"/>
     </row>
     <row r="799" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D799" s="14"/>
+      <c r="D799" s="12"/>
     </row>
     <row r="800" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D800" s="14"/>
+      <c r="D800" s="12"/>
     </row>
     <row r="801" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D801" s="14"/>
+      <c r="D801" s="12"/>
     </row>
     <row r="802" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D802" s="14"/>
+      <c r="D802" s="12"/>
     </row>
     <row r="803" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D803" s="14"/>
+      <c r="D803" s="12"/>
     </row>
     <row r="804" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D804" s="14"/>
+      <c r="D804" s="12"/>
     </row>
     <row r="805" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D805" s="14"/>
+      <c r="D805" s="12"/>
     </row>
     <row r="806" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D806" s="14"/>
+      <c r="D806" s="12"/>
     </row>
     <row r="807" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D807" s="14"/>
+      <c r="D807" s="12"/>
     </row>
     <row r="808" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D808" s="14"/>
+      <c r="D808" s="12"/>
     </row>
     <row r="809" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D809" s="14"/>
+      <c r="D809" s="12"/>
     </row>
     <row r="810" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D810" s="14"/>
+      <c r="D810" s="12"/>
     </row>
     <row r="811" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D811" s="14"/>
+      <c r="D811" s="12"/>
     </row>
     <row r="812" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D812" s="14"/>
+      <c r="D812" s="12"/>
     </row>
     <row r="813" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D813" s="14"/>
+      <c r="D813" s="12"/>
     </row>
     <row r="814" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D814" s="14"/>
+      <c r="D814" s="12"/>
     </row>
     <row r="815" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D815" s="14"/>
+      <c r="D815" s="12"/>
     </row>
     <row r="816" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D816" s="14"/>
+      <c r="D816" s="12"/>
     </row>
     <row r="817" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D817" s="14"/>
+      <c r="D817" s="12"/>
     </row>
     <row r="818" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D818" s="14"/>
+      <c r="D818" s="12"/>
     </row>
     <row r="819" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D819" s="14"/>
+      <c r="D819" s="12"/>
     </row>
     <row r="820" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D820" s="14"/>
+      <c r="D820" s="12"/>
     </row>
     <row r="821" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D821" s="14"/>
+      <c r="D821" s="12"/>
     </row>
     <row r="822" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D822" s="14"/>
+      <c r="D822" s="12"/>
     </row>
     <row r="823" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D823" s="14"/>
+      <c r="D823" s="12"/>
     </row>
     <row r="824" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D824" s="14"/>
+      <c r="D824" s="12"/>
     </row>
     <row r="825" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D825" s="14"/>
+      <c r="D825" s="12"/>
     </row>
     <row r="826" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D826" s="14"/>
+      <c r="D826" s="12"/>
     </row>
     <row r="827" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D827" s="14"/>
+      <c r="D827" s="12"/>
     </row>
     <row r="828" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D828" s="14"/>
+      <c r="D828" s="12"/>
     </row>
     <row r="829" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D829" s="14"/>
+      <c r="D829" s="12"/>
     </row>
     <row r="830" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D830" s="14"/>
+      <c r="D830" s="12"/>
     </row>
     <row r="831" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D831" s="14"/>
+      <c r="D831" s="12"/>
     </row>
     <row r="832" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D832" s="14"/>
+      <c r="D832" s="12"/>
     </row>
     <row r="833" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D833" s="14"/>
+      <c r="D833" s="12"/>
     </row>
     <row r="834" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D834" s="14"/>
+      <c r="D834" s="12"/>
     </row>
     <row r="835" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D835" s="14"/>
+      <c r="D835" s="12"/>
     </row>
     <row r="836" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D836" s="14"/>
+      <c r="D836" s="12"/>
     </row>
     <row r="837" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D837" s="14"/>
+      <c r="D837" s="12"/>
     </row>
     <row r="838" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D838" s="14"/>
+      <c r="D838" s="12"/>
     </row>
     <row r="839" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D839" s="14"/>
+      <c r="D839" s="12"/>
     </row>
     <row r="840" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D840" s="14"/>
+      <c r="D840" s="12"/>
     </row>
     <row r="841" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D841" s="14"/>
+      <c r="D841" s="12"/>
     </row>
     <row r="842" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D842" s="14"/>
+      <c r="D842" s="12"/>
     </row>
     <row r="843" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D843" s="14"/>
+      <c r="D843" s="12"/>
     </row>
     <row r="844" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D844" s="14"/>
+      <c r="D844" s="12"/>
     </row>
     <row r="845" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D845" s="14"/>
+      <c r="D845" s="12"/>
     </row>
     <row r="846" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D846" s="14"/>
+      <c r="D846" s="12"/>
     </row>
     <row r="847" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D847" s="14"/>
+      <c r="D847" s="12"/>
     </row>
     <row r="848" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D848" s="14"/>
+      <c r="D848" s="12"/>
     </row>
     <row r="849" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D849" s="14"/>
+      <c r="D849" s="12"/>
     </row>
     <row r="850" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D850" s="14"/>
+      <c r="D850" s="12"/>
     </row>
     <row r="851" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D851" s="14"/>
+      <c r="D851" s="12"/>
     </row>
     <row r="852" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D852" s="14"/>
+      <c r="D852" s="12"/>
     </row>
     <row r="853" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D853" s="14"/>
+      <c r="D853" s="12"/>
     </row>
     <row r="854" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D854" s="14"/>
+      <c r="D854" s="12"/>
     </row>
     <row r="855" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D855" s="14"/>
+      <c r="D855" s="12"/>
     </row>
     <row r="856" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D856" s="14"/>
+      <c r="D856" s="12"/>
     </row>
     <row r="857" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D857" s="14"/>
+      <c r="D857" s="12"/>
     </row>
     <row r="858" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D858" s="14"/>
+      <c r="D858" s="12"/>
     </row>
     <row r="859" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D859" s="14"/>
+      <c r="D859" s="12"/>
     </row>
     <row r="860" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D860" s="14"/>
+      <c r="D860" s="12"/>
     </row>
     <row r="861" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D861" s="14"/>
+      <c r="D861" s="12"/>
     </row>
     <row r="862" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D862" s="14"/>
+      <c r="D862" s="12"/>
     </row>
     <row r="863" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D863" s="14"/>
+      <c r="D863" s="12"/>
     </row>
     <row r="864" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D864" s="14"/>
+      <c r="D864" s="12"/>
     </row>
     <row r="865" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D865" s="14"/>
+      <c r="D865" s="12"/>
     </row>
     <row r="866" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D866" s="14"/>
+      <c r="D866" s="12"/>
     </row>
     <row r="867" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D867" s="14"/>
+      <c r="D867" s="12"/>
     </row>
     <row r="868" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D868" s="14"/>
+      <c r="D868" s="12"/>
     </row>
     <row r="869" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D869" s="14"/>
+      <c r="D869" s="12"/>
     </row>
     <row r="870" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D870" s="14"/>
+      <c r="D870" s="12"/>
     </row>
     <row r="871" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D871" s="14"/>
+      <c r="D871" s="12"/>
     </row>
     <row r="872" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D872" s="14"/>
+      <c r="D872" s="12"/>
     </row>
     <row r="873" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D873" s="14"/>
+      <c r="D873" s="12"/>
     </row>
     <row r="874" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D874" s="14"/>
+      <c r="D874" s="12"/>
     </row>
     <row r="875" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D875" s="14"/>
+      <c r="D875" s="12"/>
     </row>
     <row r="876" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D876" s="14"/>
+      <c r="D876" s="12"/>
     </row>
     <row r="877" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D877" s="14"/>
+      <c r="D877" s="12"/>
     </row>
     <row r="878" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D878" s="14"/>
+      <c r="D878" s="12"/>
     </row>
     <row r="879" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D879" s="14"/>
+      <c r="D879" s="12"/>
     </row>
     <row r="880" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D880" s="14"/>
+      <c r="D880" s="12"/>
     </row>
     <row r="881" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D881" s="14"/>
+      <c r="D881" s="12"/>
     </row>
     <row r="882" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D882" s="14"/>
+      <c r="D882" s="12"/>
     </row>
     <row r="883" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D883" s="14"/>
+      <c r="D883" s="12"/>
     </row>
     <row r="884" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D884" s="14"/>
+      <c r="D884" s="12"/>
     </row>
     <row r="885" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D885" s="14"/>
+      <c r="D885" s="12"/>
     </row>
     <row r="886" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D886" s="14"/>
+      <c r="D886" s="12"/>
     </row>
     <row r="887" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D887" s="14"/>
+      <c r="D887" s="12"/>
     </row>
     <row r="888" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D888" s="14"/>
+      <c r="D888" s="12"/>
     </row>
     <row r="889" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D889" s="14"/>
+      <c r="D889" s="12"/>
     </row>
     <row r="890" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D890" s="14"/>
+      <c r="D890" s="12"/>
     </row>
     <row r="891" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D891" s="14"/>
+      <c r="D891" s="12"/>
     </row>
     <row r="892" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D892" s="14"/>
+      <c r="D892" s="12"/>
     </row>
     <row r="893" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D893" s="14"/>
+      <c r="D893" s="12"/>
     </row>
     <row r="894" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D894" s="14"/>
+      <c r="D894" s="12"/>
     </row>
     <row r="895" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D895" s="14"/>
+      <c r="D895" s="12"/>
     </row>
     <row r="896" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D896" s="14"/>
+      <c r="D896" s="12"/>
     </row>
     <row r="897" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D897" s="14"/>
+      <c r="D897" s="12"/>
     </row>
     <row r="898" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D898" s="14"/>
+      <c r="D898" s="12"/>
     </row>
     <row r="899" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D899" s="14"/>
+      <c r="D899" s="12"/>
     </row>
     <row r="900" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D900" s="14"/>
+      <c r="D900" s="12"/>
     </row>
     <row r="901" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D901" s="14"/>
+      <c r="D901" s="12"/>
     </row>
     <row r="902" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D902" s="14"/>
+      <c r="D902" s="12"/>
     </row>
     <row r="903" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D903" s="14"/>
+      <c r="D903" s="12"/>
     </row>
     <row r="904" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D904" s="14"/>
+      <c r="D904" s="12"/>
     </row>
     <row r="905" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D905" s="14"/>
+      <c r="D905" s="12"/>
     </row>
     <row r="906" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D906" s="14"/>
+      <c r="D906" s="12"/>
     </row>
     <row r="907" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D907" s="14"/>
+      <c r="D907" s="12"/>
     </row>
     <row r="908" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D908" s="14"/>
+      <c r="D908" s="12"/>
     </row>
     <row r="909" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D909" s="14"/>
+      <c r="D909" s="12"/>
     </row>
     <row r="910" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D910" s="14"/>
+      <c r="D910" s="12"/>
     </row>
     <row r="911" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D911" s="14"/>
+      <c r="D911" s="12"/>
     </row>
     <row r="912" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D912" s="14"/>
+      <c r="D912" s="12"/>
     </row>
     <row r="913" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D913" s="14"/>
+      <c r="D913" s="12"/>
     </row>
     <row r="914" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D914" s="14"/>
+      <c r="D914" s="12"/>
     </row>
     <row r="915" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D915" s="14"/>
+      <c r="D915" s="12"/>
     </row>
     <row r="916" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D916" s="14"/>
+      <c r="D916" s="12"/>
     </row>
     <row r="917" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D917" s="14"/>
+      <c r="D917" s="12"/>
     </row>
     <row r="918" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D918" s="14"/>
+      <c r="D918" s="12"/>
     </row>
     <row r="919" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D919" s="14"/>
+      <c r="D919" s="12"/>
     </row>
     <row r="920" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D920" s="14"/>
+      <c r="D920" s="12"/>
     </row>
     <row r="921" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D921" s="14"/>
+      <c r="D921" s="12"/>
     </row>
     <row r="922" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D922" s="14"/>
+      <c r="D922" s="12"/>
     </row>
     <row r="923" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D923" s="14"/>
+      <c r="D923" s="12"/>
     </row>
     <row r="924" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D924" s="14"/>
+      <c r="D924" s="12"/>
     </row>
     <row r="925" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D925" s="14"/>
+      <c r="D925" s="12"/>
     </row>
     <row r="926" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D926" s="14"/>
+      <c r="D926" s="12"/>
     </row>
     <row r="927" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D927" s="14"/>
+      <c r="D927" s="12"/>
     </row>
     <row r="928" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D928" s="14"/>
+      <c r="D928" s="12"/>
     </row>
     <row r="929" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D929" s="14"/>
+      <c r="D929" s="12"/>
     </row>
     <row r="930" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D930" s="14"/>
+      <c r="D930" s="12"/>
     </row>
     <row r="931" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D931" s="14"/>
+      <c r="D931" s="12"/>
     </row>
     <row r="932" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D932" s="14"/>
+      <c r="D932" s="12"/>
     </row>
     <row r="933" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D933" s="14"/>
+      <c r="D933" s="12"/>
     </row>
     <row r="934" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D934" s="14"/>
+      <c r="D934" s="12"/>
     </row>
     <row r="935" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D935" s="14"/>
+      <c r="D935" s="12"/>
     </row>
     <row r="936" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D936" s="14"/>
+      <c r="D936" s="12"/>
     </row>
     <row r="937" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D937" s="14"/>
+      <c r="D937" s="12"/>
     </row>
     <row r="938" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D938" s="14"/>
+      <c r="D938" s="12"/>
     </row>
     <row r="939" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D939" s="14"/>
+      <c r="D939" s="12"/>
     </row>
     <row r="940" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D940" s="14"/>
+      <c r="D940" s="12"/>
     </row>
     <row r="941" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D941" s="14"/>
+      <c r="D941" s="12"/>
     </row>
     <row r="942" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D942" s="14"/>
+      <c r="D942" s="12"/>
     </row>
     <row r="943" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D943" s="14"/>
+      <c r="D943" s="12"/>
     </row>
     <row r="944" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D944" s="14"/>
+      <c r="D944" s="12"/>
     </row>
     <row r="945" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D945" s="14"/>
+      <c r="D945" s="12"/>
     </row>
     <row r="946" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D946" s="14"/>
+      <c r="D946" s="12"/>
     </row>
     <row r="947" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D947" s="14"/>
+      <c r="D947" s="12"/>
     </row>
     <row r="948" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D948" s="14"/>
+      <c r="D948" s="12"/>
     </row>
     <row r="949" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D949" s="14"/>
+      <c r="D949" s="12"/>
     </row>
     <row r="950" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D950" s="14"/>
+      <c r="D950" s="12"/>
     </row>
     <row r="951" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D951" s="14"/>
+      <c r="D951" s="12"/>
     </row>
     <row r="952" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D952" s="14"/>
+      <c r="D952" s="12"/>
     </row>
     <row r="953" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D953" s="14"/>
+      <c r="D953" s="12"/>
     </row>
     <row r="954" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D954" s="14"/>
+      <c r="D954" s="12"/>
     </row>
     <row r="955" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D955" s="14"/>
+      <c r="D955" s="12"/>
     </row>
     <row r="956" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D956" s="14"/>
+      <c r="D956" s="12"/>
     </row>
     <row r="957" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D957" s="14"/>
+      <c r="D957" s="12"/>
     </row>
     <row r="958" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D958" s="14"/>
+      <c r="D958" s="12"/>
     </row>
     <row r="959" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D959" s="14"/>
+      <c r="D959" s="12"/>
     </row>
     <row r="960" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D960" s="14"/>
+      <c r="D960" s="12"/>
     </row>
     <row r="961" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D961" s="14"/>
+      <c r="D961" s="12"/>
     </row>
     <row r="962" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D962" s="14"/>
+      <c r="D962" s="12"/>
     </row>
     <row r="963" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D963" s="14"/>
+      <c r="D963" s="12"/>
     </row>
     <row r="964" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D964" s="14"/>
+      <c r="D964" s="12"/>
     </row>
     <row r="965" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D965" s="14"/>
+      <c r="D965" s="12"/>
     </row>
     <row r="966" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D966" s="14"/>
+      <c r="D966" s="12"/>
     </row>
     <row r="967" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D967" s="14"/>
+      <c r="D967" s="12"/>
     </row>
     <row r="968" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D968" s="14"/>
+      <c r="D968" s="12"/>
     </row>
     <row r="969" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D969" s="14"/>
+      <c r="D969" s="12"/>
     </row>
     <row r="970" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D970" s="14"/>
+      <c r="D970" s="12"/>
     </row>
     <row r="971" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D971" s="14"/>
+      <c r="D971" s="12"/>
     </row>
     <row r="972" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D972" s="14"/>
+      <c r="D972" s="12"/>
     </row>
     <row r="973" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D973" s="14"/>
+      <c r="D973" s="12"/>
     </row>
     <row r="974" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D974" s="14"/>
+      <c r="D974" s="12"/>
     </row>
     <row r="975" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D975" s="14"/>
+      <c r="D975" s="12"/>
     </row>
     <row r="976" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D976" s="14"/>
+      <c r="D976" s="12"/>
     </row>
     <row r="977" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D977" s="14"/>
+      <c r="D977" s="12"/>
     </row>
     <row r="978" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D978" s="14"/>
+      <c r="D978" s="12"/>
     </row>
     <row r="979" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D979" s="14"/>
+      <c r="D979" s="12"/>
     </row>
     <row r="980" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D980" s="14"/>
+      <c r="D980" s="12"/>
     </row>
     <row r="981" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D981" s="14"/>
+      <c r="D981" s="12"/>
     </row>
     <row r="982" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D982" s="14"/>
+      <c r="D982" s="12"/>
     </row>
     <row r="983" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D983" s="14"/>
+      <c r="D983" s="12"/>
     </row>
     <row r="984" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D984" s="14"/>
+      <c r="D984" s="12"/>
     </row>
     <row r="985" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D985" s="14"/>
+      <c r="D985" s="12"/>
     </row>
     <row r="986" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D986" s="14"/>
+      <c r="D986" s="12"/>
     </row>
     <row r="987" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D987" s="14"/>
+      <c r="D987" s="12"/>
     </row>
     <row r="988" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D988" s="14"/>
+      <c r="D988" s="12"/>
     </row>
     <row r="989" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D989" s="14"/>
+      <c r="D989" s="12"/>
     </row>
     <row r="990" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D990" s="14"/>
+      <c r="D990" s="12"/>
     </row>
     <row r="991" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D991" s="14"/>
+      <c r="D991" s="12"/>
     </row>
     <row r="992" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D992" s="14"/>
+      <c r="D992" s="12"/>
     </row>
     <row r="993" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D993" s="14"/>
+      <c r="D993" s="12"/>
     </row>
     <row r="994" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D994" s="14"/>
+      <c r="D994" s="12"/>
     </row>
     <row r="995" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D995" s="14"/>
+      <c r="D995" s="12"/>
     </row>
     <row r="996" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D996" s="14"/>
+      <c r="D996" s="12"/>
     </row>
     <row r="997" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D997" s="14"/>
+      <c r="D997" s="12"/>
     </row>
     <row r="998" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D998" s="14"/>
+      <c r="D998" s="12"/>
     </row>
     <row r="999" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D999" s="14"/>
+      <c r="D999" s="12"/>
     </row>
     <row r="1000" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1000" s="14"/>
+      <c r="D1000" s="12"/>
     </row>
     <row r="1001" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1001" s="14"/>
+      <c r="D1001" s="12"/>
     </row>
     <row r="1002" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1002" s="14"/>
+      <c r="D1002" s="12"/>
     </row>
     <row r="1003" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1003" s="14"/>
+      <c r="D1003" s="12"/>
     </row>
     <row r="1004" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1004" s="14"/>
+      <c r="D1004" s="12"/>
     </row>
     <row r="1005" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1005" s="14"/>
+      <c r="D1005" s="12"/>
     </row>
     <row r="1006" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1006" s="14"/>
+      <c r="D1006" s="12"/>
     </row>
     <row r="1007" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1007" s="14"/>
+      <c r="D1007" s="12"/>
     </row>
     <row r="1008" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1008" s="14"/>
+      <c r="D1008" s="12"/>
     </row>
     <row r="1009" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1009" s="14"/>
+      <c r="D1009" s="12"/>
     </row>
     <row r="1010" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1010" s="14"/>
+      <c r="D1010" s="12"/>
     </row>
     <row r="1011" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1011" s="14"/>
+      <c r="D1011" s="12"/>
     </row>
     <row r="1012" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1012" s="14"/>
+      <c r="D1012" s="12"/>
     </row>
     <row r="1013" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1013" s="14"/>
+      <c r="D1013" s="12"/>
     </row>
     <row r="1014" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1014" s="14"/>
+      <c r="D1014" s="12"/>
     </row>
     <row r="1015" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1015" s="14"/>
+      <c r="D1015" s="12"/>
     </row>
     <row r="1016" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1016" s="14"/>
+      <c r="D1016" s="12"/>
     </row>
     <row r="1017" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1017" s="14"/>
+      <c r="D1017" s="12"/>
     </row>
     <row r="1018" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1018" s="14"/>
+      <c r="D1018" s="12"/>
     </row>
     <row r="1019" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1019" s="14"/>
+      <c r="D1019" s="12"/>
     </row>
     <row r="1020" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1020" s="14"/>
+      <c r="D1020" s="12"/>
     </row>
     <row r="1021" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1021" s="14"/>
+      <c r="D1021" s="12"/>
     </row>
     <row r="1022" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1022" s="14"/>
+      <c r="D1022" s="12"/>
     </row>
     <row r="1023" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1023" s="14"/>
+      <c r="D1023" s="12"/>
     </row>
     <row r="1024" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1024" s="14"/>
+      <c r="D1024" s="12"/>
     </row>
     <row r="1025" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1025" s="14"/>
+      <c r="D1025" s="12"/>
     </row>
     <row r="1026" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1026" s="14"/>
+      <c r="D1026" s="12"/>
     </row>
     <row r="1027" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1027" s="14"/>
+      <c r="D1027" s="12"/>
     </row>
     <row r="1028" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1028" s="14"/>
+      <c r="D1028" s="12"/>
     </row>
     <row r="1029" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1029" s="14"/>
+      <c r="D1029" s="12"/>
     </row>
     <row r="1030" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1030" s="14"/>
+      <c r="D1030" s="12"/>
     </row>
     <row r="1031" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1031" s="14"/>
+      <c r="D1031" s="12"/>
     </row>
     <row r="1032" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1032" s="14"/>
+      <c r="D1032" s="12"/>
     </row>
     <row r="1033" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1033" s="14"/>
+      <c r="D1033" s="12"/>
     </row>
     <row r="1034" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1034" s="14"/>
+      <c r="D1034" s="12"/>
     </row>
     <row r="1035" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1035" s="14"/>
+      <c r="D1035" s="12"/>
     </row>
     <row r="1036" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1036" s="14"/>
+      <c r="D1036" s="12"/>
     </row>
     <row r="1037" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1037" s="14"/>
+      <c r="D1037" s="12"/>
     </row>
     <row r="1038" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1038" s="14"/>
+      <c r="D1038" s="12"/>
     </row>
     <row r="1039" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1039" s="14"/>
+      <c r="D1039" s="12"/>
     </row>
     <row r="1040" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1040" s="14"/>
+      <c r="D1040" s="12"/>
     </row>
     <row r="1041" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1041" s="14"/>
+      <c r="D1041" s="12"/>
     </row>
     <row r="1042" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1042" s="14"/>
+      <c r="D1042" s="12"/>
     </row>
     <row r="1043" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1043" s="14"/>
+      <c r="D1043" s="12"/>
     </row>
     <row r="1044" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1044" s="14"/>
+      <c r="D1044" s="12"/>
     </row>
     <row r="1045" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1045" s="14"/>
+      <c r="D1045" s="12"/>
     </row>
     <row r="1046" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1046" s="22"/>
+      <c r="D1046" s="20"/>
     </row>
     <row r="1047" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1047" s="22"/>
+      <c r="D1047" s="20"/>
     </row>
     <row r="1048" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D1048" s="22"/>
+      <c r="D1048" s="20"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/UMx5DYq1Ibd/hwG3ODCW0PYtyYl6ZJlomfsftHWQP6x7hKWVg4doJfbTZgmDWfFwBEo1JMI9LskD/njpC8n+Q==" saltValue="fkQ3uWtl4kWgEkmv2or71w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -4547,1422 +5965,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMC6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="24" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="22"/>
-    <col min="7" max="7" width="8.85546875" style="24"/>
-    <col min="8" max="8" width="8.85546875" style="26"/>
-    <col min="9" max="9" width="17" style="26" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="27"/>
-    <col min="12" max="16" width="20.42578125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" style="22" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="22" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="22" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="22" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="22"/>
-    <col min="22" max="22" width="10.140625" style="22" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" style="22" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="22" customWidth="1"/>
-    <col min="25" max="35" width="8.85546875" style="22"/>
-    <col min="36" max="36" width="15.5703125" style="22" customWidth="1"/>
-    <col min="37" max="37" width="10.28515625" style="22" customWidth="1"/>
-    <col min="38" max="40" width="8.85546875" style="22"/>
-    <col min="41" max="41" width="15.5703125" style="22" customWidth="1"/>
-    <col min="42" max="985" width="8.85546875" style="22"/>
-    <col min="986" max="987" width="11.5703125" style="22" customWidth="1"/>
-    <col min="988" max="1017" width="9.140625" style="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1017" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AMC1" s="22"/>
-    </row>
-    <row r="2" spans="1:1017" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="23">
-        <v>12</v>
-      </c>
-      <c r="C2" s="24">
-        <v>21</v>
-      </c>
-      <c r="F2" s="22">
-        <v>2006</v>
-      </c>
-      <c r="G2" s="24">
-        <v>20</v>
-      </c>
-      <c r="H2" s="26">
-        <v>1637</v>
-      </c>
-      <c r="I2" s="26">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J2" s="26">
-        <v>3.9</v>
-      </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:1017" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="23">
-        <v>15</v>
-      </c>
-      <c r="C3" s="24">
-        <v>21</v>
-      </c>
-      <c r="F3" s="22">
-        <v>2006</v>
-      </c>
-      <c r="G3" s="24">
-        <v>20</v>
-      </c>
-      <c r="H3" s="26">
-        <v>1338</v>
-      </c>
-      <c r="I3" s="26">
-        <v>18</v>
-      </c>
-      <c r="J3" s="26">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1017" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="23">
-        <v>18</v>
-      </c>
-      <c r="C4" s="24">
-        <v>21</v>
-      </c>
-      <c r="F4" s="22">
-        <v>2006</v>
-      </c>
-      <c r="G4" s="24">
-        <v>20</v>
-      </c>
-      <c r="H4" s="26">
-        <v>1120</v>
-      </c>
-      <c r="I4" s="26">
-        <v>19.7</v>
-      </c>
-      <c r="J4" s="26">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1017" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="23">
-        <v>21</v>
-      </c>
-      <c r="C5" s="24">
-        <v>21</v>
-      </c>
-      <c r="F5" s="22">
-        <v>2006</v>
-      </c>
-      <c r="G5" s="24">
-        <v>20</v>
-      </c>
-      <c r="H5" s="26">
-        <v>951</v>
-      </c>
-      <c r="I5" s="26">
-        <v>21.7</v>
-      </c>
-      <c r="J5" s="26">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1017" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="23">
-        <v>24</v>
-      </c>
-      <c r="C6" s="24">
-        <v>21</v>
-      </c>
-      <c r="F6" s="22">
-        <v>2006</v>
-      </c>
-      <c r="G6" s="24">
-        <v>20</v>
-      </c>
-      <c r="H6" s="26">
-        <v>815</v>
-      </c>
-      <c r="I6" s="26">
-        <v>24</v>
-      </c>
-      <c r="J6" s="26">
-        <v>10.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0rWWjJOq0FsnwxVZFxBuVQBkfz6BWPoTvFeGi62Ic8eGqoWWs+LhzpyneWSq6SO0BZXpiRZ6iz9xqgn+irrRWg==" saltValue="T7xqGnRFzwW4r2sXD9cfYg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="A2:XFD1048576" name="Range1"/>
-  </protectedRanges>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AMA46"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="23"/>
-    <col min="5" max="5" width="16.28515625" style="29" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" style="22"/>
-    <col min="8" max="8" width="8.85546875" style="29"/>
-    <col min="9" max="9" width="11.5703125" style="26" customWidth="1"/>
-    <col min="10" max="15" width="8.85546875" style="22"/>
-    <col min="16" max="16" width="8.85546875" style="30"/>
-    <col min="17" max="901" width="8.85546875" style="22"/>
-    <col min="902" max="919" width="11.5703125" style="22" customWidth="1"/>
-    <col min="920" max="975" width="9.140625" style="22" customWidth="1"/>
-    <col min="976" max="1015" width="11.5703125" style="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1015" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="ALS1" s="22"/>
-      <c r="ALT1" s="22"/>
-      <c r="ALU1" s="22"/>
-      <c r="ALV1" s="22"/>
-      <c r="ALW1" s="22"/>
-      <c r="ALX1" s="22"/>
-      <c r="ALY1" s="22"/>
-      <c r="ALZ1" s="22"/>
-      <c r="AMA1" s="22"/>
-    </row>
-    <row r="2" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="23">
-        <v>12</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23">
-        <v>21</v>
-      </c>
-      <c r="E2" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H2" s="29">
-        <v>11.3</v>
-      </c>
-      <c r="I2" s="26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="23">
-        <v>12</v>
-      </c>
-      <c r="C3" s="23">
-        <v>2</v>
-      </c>
-      <c r="D3" s="23">
-        <v>21</v>
-      </c>
-      <c r="E3" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H3" s="29">
-        <v>11.3</v>
-      </c>
-      <c r="I3" s="26">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="23">
-        <v>12</v>
-      </c>
-      <c r="C4" s="23">
-        <v>3</v>
-      </c>
-      <c r="D4" s="23">
-        <v>21</v>
-      </c>
-      <c r="E4" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H4" s="29">
-        <v>11.3</v>
-      </c>
-      <c r="I4" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="23">
-        <v>12</v>
-      </c>
-      <c r="C5" s="23">
-        <v>4</v>
-      </c>
-      <c r="D5" s="23">
-        <v>21</v>
-      </c>
-      <c r="E5" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H5" s="29">
-        <v>13.6</v>
-      </c>
-      <c r="I5" s="26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="23">
-        <v>12</v>
-      </c>
-      <c r="C6" s="23">
-        <v>5</v>
-      </c>
-      <c r="D6" s="23">
-        <v>21</v>
-      </c>
-      <c r="E6" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H6" s="29">
-        <v>13.6</v>
-      </c>
-      <c r="I6" s="26">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="23">
-        <v>12</v>
-      </c>
-      <c r="C7" s="23">
-        <v>6</v>
-      </c>
-      <c r="D7" s="23">
-        <v>21</v>
-      </c>
-      <c r="E7" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H7" s="29">
-        <v>13.6</v>
-      </c>
-      <c r="I7" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="23">
-        <v>12</v>
-      </c>
-      <c r="C8" s="23">
-        <v>7</v>
-      </c>
-      <c r="D8" s="23">
-        <v>21</v>
-      </c>
-      <c r="E8" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H8" s="29">
-        <v>9</v>
-      </c>
-      <c r="I8" s="26">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="23">
-        <v>12</v>
-      </c>
-      <c r="C9" s="23">
-        <v>8</v>
-      </c>
-      <c r="D9" s="23">
-        <v>21</v>
-      </c>
-      <c r="E9" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H9" s="29">
-        <v>9</v>
-      </c>
-      <c r="I9" s="26">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="23">
-        <v>12</v>
-      </c>
-      <c r="C10" s="23">
-        <v>9</v>
-      </c>
-      <c r="D10" s="23">
-        <v>21</v>
-      </c>
-      <c r="E10" s="29">
-        <v>181.9</v>
-      </c>
-      <c r="H10" s="29">
-        <v>9</v>
-      </c>
-      <c r="I10" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="23">
-        <v>15</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="D11" s="23">
-        <v>21</v>
-      </c>
-      <c r="E11" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H11" s="29">
-        <v>13.1</v>
-      </c>
-      <c r="I11" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="23">
-        <v>15</v>
-      </c>
-      <c r="C12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23">
-        <v>21</v>
-      </c>
-      <c r="E12" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H12" s="29">
-        <v>13.1</v>
-      </c>
-      <c r="I12" s="26">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="23">
-        <v>15</v>
-      </c>
-      <c r="C13" s="23">
-        <v>3</v>
-      </c>
-      <c r="D13" s="23">
-        <v>21</v>
-      </c>
-      <c r="E13" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H13" s="29">
-        <v>13.1</v>
-      </c>
-      <c r="I13" s="26">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="23">
-        <v>15</v>
-      </c>
-      <c r="C14" s="23">
-        <v>4</v>
-      </c>
-      <c r="D14" s="23">
-        <v>21</v>
-      </c>
-      <c r="E14" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H14" s="29">
-        <v>15.7</v>
-      </c>
-      <c r="I14" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="23">
-        <v>15</v>
-      </c>
-      <c r="C15" s="23">
-        <v>5</v>
-      </c>
-      <c r="D15" s="23">
-        <v>21</v>
-      </c>
-      <c r="E15" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H15" s="29">
-        <v>15.7</v>
-      </c>
-      <c r="I15" s="26">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1015" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="23">
-        <v>15</v>
-      </c>
-      <c r="C16" s="23">
-        <v>6</v>
-      </c>
-      <c r="D16" s="23">
-        <v>21</v>
-      </c>
-      <c r="E16" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H16" s="29">
-        <v>15.7</v>
-      </c>
-      <c r="I16" s="26">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="23">
-        <v>15</v>
-      </c>
-      <c r="C17" s="23">
-        <v>7</v>
-      </c>
-      <c r="D17" s="23">
-        <v>21</v>
-      </c>
-      <c r="E17" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H17" s="29">
-        <v>10.5</v>
-      </c>
-      <c r="I17" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="23">
-        <v>15</v>
-      </c>
-      <c r="C18" s="23">
-        <v>8</v>
-      </c>
-      <c r="D18" s="23">
-        <v>21</v>
-      </c>
-      <c r="E18" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H18" s="29">
-        <v>10.5</v>
-      </c>
-      <c r="I18" s="26">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="23">
-        <v>15</v>
-      </c>
-      <c r="C19" s="23">
-        <v>9</v>
-      </c>
-      <c r="D19" s="23">
-        <v>21</v>
-      </c>
-      <c r="E19" s="29">
-        <v>148.69999999999999</v>
-      </c>
-      <c r="H19" s="29">
-        <v>10.5</v>
-      </c>
-      <c r="I19" s="26">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="23">
-        <v>18</v>
-      </c>
-      <c r="C20" s="23">
-        <v>1</v>
-      </c>
-      <c r="D20" s="23">
-        <v>21</v>
-      </c>
-      <c r="E20" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H20" s="29">
-        <v>15</v>
-      </c>
-      <c r="I20" s="26">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="23">
-        <v>18</v>
-      </c>
-      <c r="C21" s="23">
-        <v>2</v>
-      </c>
-      <c r="D21" s="23">
-        <v>21</v>
-      </c>
-      <c r="E21" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H21" s="29">
-        <v>15</v>
-      </c>
-      <c r="I21" s="26">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="23">
-        <v>18</v>
-      </c>
-      <c r="C22" s="23">
-        <v>3</v>
-      </c>
-      <c r="D22" s="23">
-        <v>21</v>
-      </c>
-      <c r="E22" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H22" s="29">
-        <v>15</v>
-      </c>
-      <c r="I22" s="26">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="23">
-        <v>18</v>
-      </c>
-      <c r="C23" s="23">
-        <v>4</v>
-      </c>
-      <c r="D23" s="23">
-        <v>21</v>
-      </c>
-      <c r="E23" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H23" s="29">
-        <v>18</v>
-      </c>
-      <c r="I23" s="26">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="23">
-        <v>18</v>
-      </c>
-      <c r="C24" s="23">
-        <v>5</v>
-      </c>
-      <c r="D24" s="23">
-        <v>21</v>
-      </c>
-      <c r="E24" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H24" s="29">
-        <v>18</v>
-      </c>
-      <c r="I24" s="26">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="23">
-        <v>18</v>
-      </c>
-      <c r="C25" s="23">
-        <v>6</v>
-      </c>
-      <c r="D25" s="23">
-        <v>21</v>
-      </c>
-      <c r="E25" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H25" s="29">
-        <v>18</v>
-      </c>
-      <c r="I25" s="26">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="23">
-        <v>18</v>
-      </c>
-      <c r="C26" s="23">
-        <v>7</v>
-      </c>
-      <c r="D26" s="23">
-        <v>21</v>
-      </c>
-      <c r="E26" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H26" s="29">
-        <v>12</v>
-      </c>
-      <c r="I26" s="26">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="23">
-        <v>18</v>
-      </c>
-      <c r="C27" s="23">
-        <v>8</v>
-      </c>
-      <c r="D27" s="23">
-        <v>21</v>
-      </c>
-      <c r="E27" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H27" s="29">
-        <v>12</v>
-      </c>
-      <c r="I27" s="26">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="23">
-        <v>18</v>
-      </c>
-      <c r="C28" s="23">
-        <v>9</v>
-      </c>
-      <c r="D28" s="23">
-        <v>21</v>
-      </c>
-      <c r="E28" s="29">
-        <v>124.4</v>
-      </c>
-      <c r="H28" s="29">
-        <v>12</v>
-      </c>
-      <c r="I28" s="26">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="23">
-        <v>21</v>
-      </c>
-      <c r="C29" s="23">
-        <v>1</v>
-      </c>
-      <c r="D29" s="23">
-        <v>21</v>
-      </c>
-      <c r="E29" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H29" s="29">
-        <v>17</v>
-      </c>
-      <c r="I29" s="26">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="23">
-        <v>21</v>
-      </c>
-      <c r="C30" s="23">
-        <v>2</v>
-      </c>
-      <c r="D30" s="23">
-        <v>21</v>
-      </c>
-      <c r="E30" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H30" s="29">
-        <v>17</v>
-      </c>
-      <c r="I30" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="23">
-        <v>21</v>
-      </c>
-      <c r="C31" s="23">
-        <v>3</v>
-      </c>
-      <c r="D31" s="23">
-        <v>21</v>
-      </c>
-      <c r="E31" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H31" s="29">
-        <v>17</v>
-      </c>
-      <c r="I31" s="26">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="23">
-        <v>21</v>
-      </c>
-      <c r="C32" s="23">
-        <v>4</v>
-      </c>
-      <c r="D32" s="23">
-        <v>21</v>
-      </c>
-      <c r="E32" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H32" s="29">
-        <v>20.5</v>
-      </c>
-      <c r="I32" s="26">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="23">
-        <v>21</v>
-      </c>
-      <c r="C33" s="23">
-        <v>5</v>
-      </c>
-      <c r="D33" s="23">
-        <v>21</v>
-      </c>
-      <c r="E33" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H33" s="29">
-        <v>20.5</v>
-      </c>
-      <c r="I33" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="23">
-        <v>21</v>
-      </c>
-      <c r="C34" s="23">
-        <v>6</v>
-      </c>
-      <c r="D34" s="23">
-        <v>21</v>
-      </c>
-      <c r="E34" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H34" s="29">
-        <v>20.5</v>
-      </c>
-      <c r="I34" s="26">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B35" s="23">
-        <v>21</v>
-      </c>
-      <c r="C35" s="23">
-        <v>7</v>
-      </c>
-      <c r="D35" s="23">
-        <v>21</v>
-      </c>
-      <c r="E35" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H35" s="29">
-        <v>13.6</v>
-      </c>
-      <c r="I35" s="26">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="23">
-        <v>21</v>
-      </c>
-      <c r="C36" s="23">
-        <v>8</v>
-      </c>
-      <c r="D36" s="23">
-        <v>21</v>
-      </c>
-      <c r="E36" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H36" s="29">
-        <v>13.6</v>
-      </c>
-      <c r="I36" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="23">
-        <v>21</v>
-      </c>
-      <c r="C37" s="23">
-        <v>9</v>
-      </c>
-      <c r="D37" s="23">
-        <v>21</v>
-      </c>
-      <c r="E37" s="29">
-        <v>105.7</v>
-      </c>
-      <c r="H37" s="29">
-        <v>13.6</v>
-      </c>
-      <c r="I37" s="26">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="23">
-        <v>24</v>
-      </c>
-      <c r="C38" s="23">
-        <v>1</v>
-      </c>
-      <c r="D38" s="23">
-        <v>21</v>
-      </c>
-      <c r="E38" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H38" s="29">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I38" s="26">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="23">
-        <v>24</v>
-      </c>
-      <c r="C39" s="23">
-        <v>2</v>
-      </c>
-      <c r="D39" s="23">
-        <v>21</v>
-      </c>
-      <c r="E39" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H39" s="29">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I39" s="26">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="23">
-        <v>24</v>
-      </c>
-      <c r="C40" s="23">
-        <v>3</v>
-      </c>
-      <c r="D40" s="23">
-        <v>21</v>
-      </c>
-      <c r="E40" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H40" s="29">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I40" s="26">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="23">
-        <v>24</v>
-      </c>
-      <c r="C41" s="23">
-        <v>4</v>
-      </c>
-      <c r="D41" s="23">
-        <v>21</v>
-      </c>
-      <c r="E41" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H41" s="29">
-        <v>23.2</v>
-      </c>
-      <c r="I41" s="26">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="23">
-        <v>24</v>
-      </c>
-      <c r="C42" s="23">
-        <v>5</v>
-      </c>
-      <c r="D42" s="23">
-        <v>21</v>
-      </c>
-      <c r="E42" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H42" s="29">
-        <v>23.2</v>
-      </c>
-      <c r="I42" s="26">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="23">
-        <v>24</v>
-      </c>
-      <c r="C43" s="23">
-        <v>6</v>
-      </c>
-      <c r="D43" s="23">
-        <v>21</v>
-      </c>
-      <c r="E43" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H43" s="29">
-        <v>23.2</v>
-      </c>
-      <c r="I43" s="26">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="23">
-        <v>24</v>
-      </c>
-      <c r="C44" s="23">
-        <v>7</v>
-      </c>
-      <c r="D44" s="23">
-        <v>21</v>
-      </c>
-      <c r="E44" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H44" s="29">
-        <v>15.5</v>
-      </c>
-      <c r="I44" s="26">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="23">
-        <v>24</v>
-      </c>
-      <c r="C45" s="23">
-        <v>8</v>
-      </c>
-      <c r="D45" s="23">
-        <v>21</v>
-      </c>
-      <c r="E45" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H45" s="29">
-        <v>15.5</v>
-      </c>
-      <c r="I45" s="26">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="23">
-        <v>24</v>
-      </c>
-      <c r="C46" s="23">
-        <v>9</v>
-      </c>
-      <c r="D46" s="23">
-        <v>21</v>
-      </c>
-      <c r="E46" s="29">
-        <v>90.6</v>
-      </c>
-      <c r="H46" s="29">
-        <v>15.5</v>
-      </c>
-      <c r="I46" s="26">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WxC82J9ZOq/HWSfjc/rjXZfhtoqB+Hl5zUO3/thDX9qv4q6ksryXG6j2KOlsBOwkIbcHnMV64tgv3sXlUnOsnA==" saltValue="mXw2TrW2sNorhpRmmoIglw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="R2:AMJ2 R4:AMJ1048576 A3:P3 R3:AMJ3 A4:Q1048576 A2:Q2" name="Range1"/>
-  </protectedRanges>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>